--- a/ben-build tools/old video catalog/vimeo-table.xlsx
+++ b/ben-build tools/old video catalog/vimeo-table.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/XCode/projects/Publish Web Sites/theskinny/ben-build tools/old video catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{81861613-CA4B-364C-9288-434AACC860CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6061940-2A63-4844-A821-D3251E6593B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="6440" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="4260" yWindow="3280" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vimeo-table" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="233">
   <si>
     <t>Privacy</t>
   </si>
@@ -714,13 +714,22 @@
   </si>
   <si>
     <t>Home Movies (V &amp; K) 2014</t>
+  </si>
+  <si>
+    <t>Home Movies (V &amp; K):  September 2012 - December 2013</t>
+  </si>
+  <si>
+    <t>Home Movies (V &amp; K):  January - August, 2012</t>
+  </si>
+  <si>
+    <t>Family Videos from Russia 2012</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -874,6 +883,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1221,7 +1237,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1244,6 +1260,10 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1599,12 +1619,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D117" sqref="D1:D1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1672,7 +1692,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>112</v>
       </c>
@@ -1682,9 +1702,14 @@
       <c r="C5" s="6">
         <v>40891.337500000001</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D5" s="3">
+        <v>1730821</v>
+      </c>
+      <c r="E5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>67</v>
       </c>
@@ -1694,7 +1719,12 @@
       <c r="C6" s="6">
         <v>41520.818749999999</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E6" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -1792,7 +1822,7 @@
       </c>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -1802,7 +1832,12 @@
       <c r="C15" s="6">
         <v>41273.538194444445</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E15" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
@@ -1816,7 +1851,7 @@
       </c>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>110</v>
       </c>
@@ -1826,9 +1861,14 @@
       <c r="C17" s="6">
         <v>40891.344444444447</v>
       </c>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="D17" s="3">
+        <v>1730821</v>
+      </c>
+      <c r="E17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
@@ -1838,9 +1878,14 @@
       <c r="C18" s="6">
         <v>41568.683333333334</v>
       </c>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D18" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
@@ -1850,7 +1895,12 @@
       <c r="C19" s="6">
         <v>41520.866666666669</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E19" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
@@ -1900,7 +1950,7 @@
       </c>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>200</v>
       </c>
@@ -1958,7 +2008,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>97</v>
       </c>
@@ -1968,9 +2018,14 @@
       <c r="C28" s="6">
         <v>41024.543749999997</v>
       </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>1818656</v>
+      </c>
+      <c r="E28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
@@ -2016,7 +2071,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>105</v>
       </c>
@@ -2026,7 +2081,12 @@
       <c r="C32" s="6">
         <v>40935.612500000003</v>
       </c>
-      <c r="D32" s="3"/>
+      <c r="D32">
+        <v>1818656</v>
+      </c>
+      <c r="E32" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
@@ -2093,7 +2153,7 @@
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
@@ -2103,7 +2163,12 @@
       <c r="C38" s="6">
         <v>41199.600694444445</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E38" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
@@ -2189,7 +2254,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>68</v>
       </c>
@@ -2199,7 +2264,12 @@
       <c r="C46" s="6">
         <v>41515.78125</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E46" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
@@ -2218,7 +2288,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>16</v>
       </c>
@@ -2252,7 +2322,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>38</v>
       </c>
@@ -2293,7 +2363,7 @@
       </c>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>92</v>
       </c>
@@ -2303,7 +2373,12 @@
       <c r="C53" s="6">
         <v>41059.445833333331</v>
       </c>
-      <c r="D53" s="3"/>
+      <c r="D53">
+        <v>1818656</v>
+      </c>
+      <c r="E53" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
@@ -2334,7 +2409,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>108</v>
       </c>
@@ -2344,9 +2419,14 @@
       <c r="C56" s="6">
         <v>40898.02847222222</v>
       </c>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D56" s="3">
+        <v>1730821</v>
+      </c>
+      <c r="E56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -2486,7 +2566,7 @@
       </c>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>48</v>
       </c>
@@ -2532,7 +2612,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>177</v>
       </c>
@@ -2544,7 +2624,7 @@
       </c>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>181</v>
       </c>
@@ -2573,7 +2653,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>116</v>
       </c>
@@ -2583,9 +2663,14 @@
       <c r="C73" s="6">
         <v>40886.065972222219</v>
       </c>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D73" s="3">
+        <v>1730821</v>
+      </c>
+      <c r="E73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>98</v>
       </c>
@@ -2595,9 +2680,14 @@
       <c r="C74" s="6">
         <v>41012.455555555556</v>
       </c>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>1818656</v>
+      </c>
+      <c r="E74" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>107</v>
       </c>
@@ -2607,9 +2697,14 @@
       <c r="C75" s="6">
         <v>40898.040972222225</v>
       </c>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D75" s="3">
+        <v>1730821</v>
+      </c>
+      <c r="E75" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>47</v>
       </c>
@@ -2638,7 +2733,7 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>183</v>
       </c>
@@ -2662,7 +2757,7 @@
       </c>
       <c r="D79" s="3"/>
     </row>
-    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>51</v>
       </c>
@@ -2679,7 +2774,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2696,7 +2791,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>57</v>
       </c>
@@ -2737,7 +2832,7 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>75</v>
       </c>
@@ -2747,9 +2842,14 @@
       <c r="C85" s="6">
         <v>41271.511111111111</v>
       </c>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D85" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E85" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>122</v>
       </c>
@@ -2759,9 +2859,14 @@
       <c r="C86" s="6">
         <v>40841.902777777781</v>
       </c>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D86" s="3">
+        <v>1730821</v>
+      </c>
+      <c r="E86" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>121</v>
       </c>
@@ -2771,9 +2876,14 @@
       <c r="C87" s="6">
         <v>40841.923611111109</v>
       </c>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D87" s="3">
+        <v>1730821</v>
+      </c>
+      <c r="E87" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>60</v>
       </c>
@@ -2783,9 +2893,14 @@
       <c r="C88" s="6">
         <v>41569.314583333333</v>
       </c>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D88" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E88" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>106</v>
       </c>
@@ -2795,7 +2910,12 @@
       <c r="C89" s="6">
         <v>40934.828472222223</v>
       </c>
-      <c r="D89" s="3"/>
+      <c r="D89">
+        <v>1818656</v>
+      </c>
+      <c r="E89" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="90" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
@@ -2814,7 +2934,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>58</v>
       </c>
@@ -2824,7 +2944,12 @@
       <c r="C91" s="6">
         <v>41645.770138888889</v>
       </c>
-      <c r="D91" s="3"/>
+      <c r="D91" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E91" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="92" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
@@ -2867,7 +2992,7 @@
       </c>
       <c r="D94" s="3"/>
     </row>
-    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>99</v>
       </c>
@@ -2877,9 +3002,14 @@
       <c r="C95" s="6">
         <v>41011.732638888891</v>
       </c>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>1818656</v>
+      </c>
+      <c r="E95" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>111</v>
       </c>
@@ -2889,7 +3019,12 @@
       <c r="C96" s="6">
         <v>40891.341666666667</v>
       </c>
-      <c r="D96" s="3"/>
+      <c r="D96" s="3">
+        <v>1730821</v>
+      </c>
+      <c r="E96" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="97" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
@@ -2908,7 +3043,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>46</v>
       </c>
@@ -2942,7 +3077,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>103</v>
       </c>
@@ -2952,7 +3087,12 @@
       <c r="C100" s="6">
         <v>40954.956250000003</v>
       </c>
-      <c r="D100" s="3"/>
+      <c r="D100">
+        <v>1818656</v>
+      </c>
+      <c r="E100" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
@@ -3079,7 +3219,7 @@
       </c>
       <c r="D110" s="3"/>
     </row>
-    <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>88</v>
       </c>
@@ -3089,7 +3229,12 @@
       <c r="C111" s="6">
         <v>41107.82708333333</v>
       </c>
-      <c r="D111" s="3"/>
+      <c r="D111">
+        <v>1818656</v>
+      </c>
+      <c r="E111" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
@@ -3139,7 +3284,7 @@
       </c>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>104</v>
       </c>
@@ -3149,7 +3294,12 @@
       <c r="C116" s="6">
         <v>40954.953472222223</v>
       </c>
-      <c r="D116" s="3"/>
+      <c r="D116">
+        <v>1818656</v>
+      </c>
+      <c r="E116" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="117" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
@@ -3163,7 +3313,7 @@
       </c>
       <c r="D117" s="3"/>
     </row>
-    <row r="118" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>102</v>
       </c>
@@ -3173,7 +3323,12 @@
       <c r="C118" s="6">
         <v>40954.957638888889</v>
       </c>
-      <c r="D118" s="3"/>
+      <c r="D118">
+        <v>1818656</v>
+      </c>
+      <c r="E118" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
@@ -3187,7 +3342,7 @@
       </c>
       <c r="D119" s="3"/>
     </row>
-    <row r="120" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>94</v>
       </c>
@@ -3197,7 +3352,12 @@
       <c r="C120" s="6">
         <v>41059.445833333331</v>
       </c>
-      <c r="D120" s="3"/>
+      <c r="D120">
+        <v>1818656</v>
+      </c>
+      <c r="E120" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="121" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="5" t="s">
@@ -3211,7 +3371,7 @@
       </c>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>169</v>
       </c>
@@ -3221,9 +3381,14 @@
       <c r="C122" s="6">
         <v>40288.902777777781</v>
       </c>
-      <c r="D122" s="3"/>
-    </row>
-    <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D122">
+        <v>1818656</v>
+      </c>
+      <c r="E122" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>49</v>
       </c>
@@ -3257,7 +3422,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>95</v>
       </c>
@@ -3332,7 +3497,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>115</v>
       </c>
@@ -3342,7 +3507,12 @@
       <c r="C130" s="6">
         <v>40886.088194444441</v>
       </c>
-      <c r="D130" s="3"/>
+      <c r="D130" s="3">
+        <v>1730821</v>
+      </c>
+      <c r="E130" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="131" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
@@ -3373,7 +3543,7 @@
       </c>
       <c r="D132" s="3"/>
     </row>
-    <row r="133" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>79</v>
       </c>
@@ -3383,7 +3553,12 @@
       <c r="C133" s="6">
         <v>41199.607638888891</v>
       </c>
-      <c r="D133" s="3"/>
+      <c r="D133" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E133" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="134" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
@@ -3397,7 +3572,7 @@
       </c>
       <c r="D134" s="3"/>
     </row>
-    <row r="135" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>81</v>
       </c>
@@ -3407,7 +3582,12 @@
       <c r="C135" s="6">
         <v>41199.566666666666</v>
       </c>
-      <c r="D135" s="3"/>
+      <c r="D135" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E135" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="136" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
@@ -3503,7 +3683,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>73</v>
       </c>
@@ -3513,7 +3693,12 @@
       <c r="C143" s="6">
         <v>41271.527083333334</v>
       </c>
-      <c r="D143" s="3"/>
+      <c r="D143" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E143" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="144" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
@@ -3597,7 +3782,7 @@
       </c>
       <c r="D149" s="3"/>
     </row>
-    <row r="150" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>78</v>
       </c>
@@ -3607,9 +3792,14 @@
       <c r="C150" s="6">
         <v>41200.376388888886</v>
       </c>
-      <c r="D150" s="3"/>
-    </row>
-    <row r="151" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D150" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E150" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>86</v>
       </c>
@@ -3619,7 +3809,12 @@
       <c r="C151" s="6">
         <v>41107.863194444442</v>
       </c>
-      <c r="D151" s="3"/>
+      <c r="D151">
+        <v>1818656</v>
+      </c>
+      <c r="E151" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="152" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
@@ -3662,7 +3857,7 @@
       </c>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>41</v>
       </c>
@@ -3708,7 +3903,7 @@
       </c>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>171</v>
       </c>
@@ -3720,7 +3915,7 @@
       </c>
       <c r="D158" s="3"/>
     </row>
-    <row r="159" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>50</v>
       </c>
@@ -3737,7 +3932,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>82</v>
       </c>
@@ -3747,9 +3942,14 @@
       <c r="C160" s="6">
         <v>41199.566666666666</v>
       </c>
-      <c r="D160" s="3"/>
-    </row>
-    <row r="161" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D160" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E160" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
         <v>77</v>
       </c>
@@ -3761,7 +3961,7 @@
       </c>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>153</v>
       </c>
@@ -3773,7 +3973,7 @@
       </c>
       <c r="D162" s="3"/>
     </row>
-    <row r="163" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>198</v>
       </c>
@@ -3785,7 +3985,7 @@
       </c>
       <c r="D163" s="3"/>
     </row>
-    <row r="164" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>83</v>
       </c>
@@ -3795,9 +3995,14 @@
       <c r="C164" s="6">
         <v>41169.689583333333</v>
       </c>
-      <c r="D164" s="3"/>
-    </row>
-    <row r="165" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D164">
+        <v>1818656</v>
+      </c>
+      <c r="E164" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>54</v>
       </c>
@@ -3809,7 +4014,7 @@
       </c>
       <c r="D165" s="3"/>
     </row>
-    <row r="166" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>42</v>
       </c>
@@ -3821,7 +4026,7 @@
       </c>
       <c r="D166" s="3"/>
     </row>
-    <row r="167" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>36</v>
       </c>
@@ -3833,7 +4038,7 @@
       </c>
       <c r="D167" s="3"/>
     </row>
-    <row r="168" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>37</v>
       </c>
@@ -3845,7 +4050,7 @@
       </c>
       <c r="D168" s="3"/>
     </row>
-    <row r="169" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>34</v>
       </c>
@@ -3857,7 +4062,7 @@
       </c>
       <c r="D169" s="3"/>
     </row>
-    <row r="170" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>35</v>
       </c>
@@ -3869,7 +4074,7 @@
       </c>
       <c r="D170" s="3"/>
     </row>
-    <row r="171" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>33</v>
       </c>
@@ -3881,7 +4086,7 @@
       </c>
       <c r="D171" s="3"/>
     </row>
-    <row r="172" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>40</v>
       </c>
@@ -3893,7 +4098,7 @@
       </c>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>64</v>
       </c>
@@ -3903,9 +4108,14 @@
       <c r="C173" s="6">
         <v>41568.680555555555</v>
       </c>
-      <c r="D173" s="3"/>
-    </row>
-    <row r="174" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D173" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E173" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>85</v>
       </c>
@@ -3915,9 +4125,14 @@
       <c r="C174" s="6">
         <v>41107.863194444442</v>
       </c>
-      <c r="D174" s="3"/>
-    </row>
-    <row r="175" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D174">
+        <v>1818656</v>
+      </c>
+      <c r="E174" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>148</v>
       </c>
@@ -3929,7 +4144,7 @@
       </c>
       <c r="D175" s="3"/>
     </row>
-    <row r="176" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>155</v>
       </c>
@@ -3958,7 +4173,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>71</v>
       </c>
@@ -3994,7 +4209,7 @@
       </c>
       <c r="D180" s="3"/>
     </row>
-    <row r="181" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>45</v>
       </c>
@@ -4023,7 +4238,7 @@
       </c>
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>12</v>
       </c>
@@ -4040,7 +4255,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>44</v>
       </c>
@@ -4117,7 +4332,7 @@
       </c>
       <c r="D189" s="3"/>
     </row>
-    <row r="190" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>91</v>
       </c>
@@ -4127,9 +4342,14 @@
       <c r="C190" s="6">
         <v>41074.51458333333</v>
       </c>
-      <c r="D190" s="3"/>
-    </row>
-    <row r="191" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D190">
+        <v>1818656</v>
+      </c>
+      <c r="E190" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>90</v>
       </c>
@@ -4139,7 +4359,12 @@
       <c r="C191" s="6">
         <v>41074.51458333333</v>
       </c>
-      <c r="D191" s="3"/>
+      <c r="D191">
+        <v>1818656</v>
+      </c>
+      <c r="E191" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="192" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
@@ -4204,7 +4429,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>59</v>
       </c>
@@ -4214,9 +4439,14 @@
       <c r="C196" s="6">
         <v>41638.371527777781</v>
       </c>
-      <c r="D196" s="3"/>
-    </row>
-    <row r="197" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D196" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E196" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>76</v>
       </c>
@@ -4226,7 +4456,12 @@
       <c r="C197" s="6">
         <v>41213.563194444447</v>
       </c>
-      <c r="D197" s="3"/>
+      <c r="D197" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E197" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="198" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
@@ -4276,7 +4511,7 @@
       </c>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>113</v>
       </c>
@@ -4286,7 +4521,12 @@
       <c r="C202" s="6">
         <v>40891.311111111114</v>
       </c>
-      <c r="D202" s="3"/>
+      <c r="D202" s="3">
+        <v>1730821</v>
+      </c>
+      <c r="E202" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="203" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
@@ -4300,7 +4540,7 @@
       </c>
       <c r="D203" s="3"/>
     </row>
-    <row r="204" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>61</v>
       </c>
@@ -4310,9 +4550,14 @@
       <c r="C204" s="6">
         <v>41569.314583333333</v>
       </c>
-      <c r="D204" s="3"/>
-    </row>
-    <row r="205" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D204" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E204" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>74</v>
       </c>
@@ -4322,9 +4567,14 @@
       <c r="C205" s="6">
         <v>41271.524305555555</v>
       </c>
-      <c r="D205" s="3"/>
-    </row>
-    <row r="206" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D205" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E205" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>62</v>
       </c>
@@ -4334,7 +4584,12 @@
       <c r="C206" s="6">
         <v>41568.711111111108</v>
       </c>
-      <c r="D206" s="3"/>
+      <c r="D206" s="3">
+        <v>2116098</v>
+      </c>
+      <c r="E206" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="207" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
@@ -4365,7 +4620,7 @@
       </c>
       <c r="D208" s="3"/>
     </row>
-    <row r="209" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>43</v>
       </c>
@@ -4382,7 +4637,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>84</v>
       </c>
@@ -4392,7 +4647,12 @@
       <c r="C210" s="6">
         <v>41107.863194444442</v>
       </c>
-      <c r="D210" s="3"/>
+      <c r="D210" s="9">
+        <v>1818656</v>
+      </c>
+      <c r="E210" s="9" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="211" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
@@ -4447,7 +4707,7 @@
       </c>
       <c r="D214" s="3"/>
     </row>
-    <row r="215" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>93</v>
       </c>
@@ -4457,10 +4717,15 @@
       <c r="C215" s="6">
         <v>41059.445833333331</v>
       </c>
-      <c r="D215" s="3"/>
+      <c r="D215" s="9">
+        <v>1818656</v>
+      </c>
+      <c r="E215" s="9" t="s">
+        <v>221</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E215">
+  <autoFilter ref="A1:E215" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters blank="1"/>
     </filterColumn>
@@ -4469,244 +4734,244 @@
     <sortCondition ref="A1:A215"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C1"/>
-    <hyperlink ref="A84" r:id="rId1" tooltip="Koly’s First At Bat" display="file:///324403888/settings"/>
-    <hyperlink ref="A213" r:id="rId2" tooltip="Who Eats Boogers?" display="file:///323991180/settings"/>
-    <hyperlink ref="A192" r:id="rId3" tooltip="Vanya Dices" display="file:///322646713/settings"/>
-    <hyperlink ref="A177" r:id="rId4" tooltip="The Longest Description" display="file:///314079416/settings"/>
-    <hyperlink ref="A77" r:id="rId5" tooltip="IMG_0003" display="file:///267306710/settings"/>
-    <hyperlink ref="A139" r:id="rId6" tooltip="rig inspection" display="file:///262221598/settings"/>
-    <hyperlink ref="A62" r:id="rId7" tooltip="Dunham Honor Choir - Christmas Songs 2016" display="file:///194259860/settings"/>
-    <hyperlink ref="A154" r:id="rId8" tooltip="St Lilian Academy Christmas Show (Older Kids) 1" display="file:///161715473/settings"/>
-    <hyperlink ref="A93" r:id="rId9" tooltip="Kolya's School Presentation" display="file:///160294977/settings"/>
-    <hyperlink ref="A182" r:id="rId10" tooltip="Toilet Singing" display="file:///160294908/settings"/>
-    <hyperlink ref="A211" r:id="rId11" tooltip="What Did Your Mom Tell You?" display="file:///159732659/settings"/>
-    <hyperlink ref="A201" r:id="rId12" tooltip="Vanya's Chapel Skit" display="file:///159721635/settings"/>
-    <hyperlink ref="A207" r:id="rId13" tooltip="Vanyaction" display="file:///159721594/settings"/>
-    <hyperlink ref="A47" r:id="rId14" tooltip="Dance Party" display="file:///159721583/settings"/>
-    <hyperlink ref="A214" r:id="rId15" tooltip="Who Had Fun at the Parade Tonight?" display="file:///159721579/settings"/>
-    <hyperlink ref="A55" r:id="rId16" tooltip="Double Sneaky Cats" display="file:///159721568/settings"/>
-    <hyperlink ref="A92" r:id="rId17" tooltip="Kolya's Knock Knock Joke" display="file:///159721557/settings"/>
-    <hyperlink ref="A97" r:id="rId18" tooltip="Lego Bulding" display="file:///159721543/settings"/>
-    <hyperlink ref="A137" r:id="rId19" tooltip="Really, Really, Really Hard Knock Life" display="file:///159721536/settings"/>
-    <hyperlink ref="A90" r:id="rId20" tooltip="Kolya is Making a Movie" display="file:///159721526/settings"/>
-    <hyperlink ref="A147" r:id="rId21" tooltip="Sk8ters" display="file:///159721516/settings"/>
-    <hyperlink ref="A61" r:id="rId22" tooltip="Dunham Halloween Carnival Day" display="file:///159721490/settings"/>
-    <hyperlink ref="A49" r:id="rId23" tooltip="Demo Day Kolya's Dance Class" display="file:///159721475/settings"/>
-    <hyperlink ref="A153" r:id="rId24" tooltip="Square Dancing" display="file:///159651315/settings"/>
-    <hyperlink ref="A59" r:id="rId25" tooltip="Drone Test - Stuck in Tree" display="file:///153437243/settings"/>
-    <hyperlink ref="A58" r:id="rId26" tooltip="Drone Flight - Goodwood Park" display="file:///153437208/settings"/>
-    <hyperlink ref="A142" r:id="rId27" tooltip="Sailing into Mandeville 2015-10-17" display="file:///142957004/settings"/>
-    <hyperlink ref="A194" r:id="rId28" tooltip="Vanya Opens Birthday Presents" display="file:///130789591/settings"/>
-    <hyperlink ref="A148" r:id="rId29" tooltip="Slow Damn Train" display="file:///130570160/settings"/>
-    <hyperlink ref="A101" r:id="rId30" tooltip="Louisiana Marathon Drone Mishap" display="file:///130486363/settings"/>
-    <hyperlink ref="A171" r:id="rId31" tooltip="Test Flight 5 - Westdale Middle School" display="file:///130363841/settings"/>
-    <hyperlink ref="A169" r:id="rId32" tooltip="Test Flight 3 - Westdale Middle School" display="file:///130363838/settings"/>
-    <hyperlink ref="A170" r:id="rId33" tooltip="Test Flight 4 - Westdale Middle School" display="file:///130363840/settings"/>
-    <hyperlink ref="A167" r:id="rId34" tooltip="Test Flight 1 - Westdale Middle School" display="file:///130363834/settings"/>
-    <hyperlink ref="A168" r:id="rId35" tooltip="Test Flight 2 - Westdale Middle School" display="file:///130363836/settings"/>
-    <hyperlink ref="A50" r:id="rId36" tooltip="Dinghy Captain Practice" display="file:///130363252/settings"/>
-    <hyperlink ref="A29" r:id="rId37" tooltip="Christmas Morning 2014" display="file:///130271126/settings"/>
-    <hyperlink ref="A172" r:id="rId38" tooltip="Test Flight at My House" display="file:///130265122/settings"/>
-    <hyperlink ref="A155" r:id="rId39" tooltip="St Lilian Academy Christmas Show 2014 (Big Kid Group)" display="file:///130263083/settings"/>
-    <hyperlink ref="A166" r:id="rId40" tooltip="Test Flight" display="file:///130253338/settings"/>
-    <hyperlink ref="A183" r:id="rId41" tooltip="Toilet Singing" display="file:///130251912/settings"/>
-    <hyperlink ref="A209" r:id="rId42" tooltip="Voodoo Dancing 2015" display="file:///130239757/settings"/>
-    <hyperlink ref="A184" r:id="rId43" tooltip="Trick or Treat Practice" display="file:///116100007/settings"/>
-    <hyperlink ref="A181" r:id="rId44" tooltip="Three Minutes Just the Other Day" display="file:///115911668/settings"/>
-    <hyperlink ref="A98" r:id="rId45" tooltip="Look at Sandra Dee" display="file:///115824161/settings"/>
-    <hyperlink ref="A76" r:id="rId46" tooltip="If You're Sailing With Me, Don't Be Afraid to Dance Bottomless" display="file:///99699615/settings"/>
-    <hyperlink ref="A67" r:id="rId47" tooltip="Exploring the wildlife at a secluded Florida anchorage." display="file:///99697885/settings"/>
-    <hyperlink ref="A123" r:id="rId48" tooltip="New Swimmer" display="file:///97777878/settings"/>
-    <hyperlink ref="A159" r:id="rId49" tooltip="Swim Kids" display="file:///97777879/settings"/>
-    <hyperlink ref="A80" r:id="rId50" tooltip="Jesus Camp Play" display="file:///97689396/settings"/>
-    <hyperlink ref="A48" r:id="rId51" tooltip="Dance Party" display="file:///93940290/settings"/>
-    <hyperlink ref="A40" r:id="rId52" tooltip="Creepiest Pop-Up Ad Ever" display="file:///93940292/settings"/>
-    <hyperlink ref="A81" r:id="rId53" tooltip="Just a Day on the Swings" display="file:///93937125/settings"/>
-    <hyperlink ref="A165" r:id="rId54" tooltip="Tedium in Column Highlighting" display="file:///93936938/settings"/>
-    <hyperlink ref="A57" r:id="rId55" tooltip="Driving the Train" display="file:///93936925/settings"/>
-    <hyperlink ref="A54" r:id="rId56" tooltip="Don't Get a Speeding Ticket, Lady" display="file:///93936926/settings"/>
-    <hyperlink ref="A82" r:id="rId57" tooltip="K's 3rd Birthday" display="file:///83546174/settings"/>
-    <hyperlink ref="A91" r:id="rId58" tooltip="Kolya School Xmas" display="file:///83545684/settings"/>
-    <hyperlink ref="A196" r:id="rId59" tooltip="Vanya School Xmas 2013" display="file:///82955738/settings"/>
-    <hyperlink ref="A88" r:id="rId60" tooltip="Kolya cut and paste crafts" display="file:///77496129/settings"/>
-    <hyperlink ref="A204" r:id="rId61" tooltip="Vanya's Spring Violin Recital" display="file:///77496130/settings"/>
-    <hyperlink ref="A206" r:id="rId62" tooltip="Vanya's Voice Recital - Spring 2012" display="file:///77451065/settings"/>
-    <hyperlink ref="A18" r:id="rId63" tooltip="Brother D-Day, Brother Flounder, Meet Brother Bluto" display="file:///77448013/settings"/>
-    <hyperlink ref="A173" r:id="rId64" tooltip="Testing the Really Big Slide at New Orleans City Park" display="file:///77447726/settings"/>
-    <hyperlink ref="A121" r:id="rId65" tooltip="MVI 0544" display="file:///77429020/settings"/>
-    <hyperlink ref="A19" r:id="rId66" tooltip="Brothers" display="file:///73741726/settings"/>
-    <hyperlink ref="A6" r:id="rId67" tooltip="At Anchor, Annapolis, MD" display="file:///73738599/settings"/>
-    <hyperlink ref="A46" r:id="rId68" tooltip="Dance Like There's No One Watching" display="file:///73423079/settings"/>
-    <hyperlink ref="A179" r:id="rId69" tooltip="This Cat Hates My Mom" display="file:///61238332/settings"/>
-    <hyperlink ref="A113" r:id="rId70" tooltip="Mardi Gras Indians 2013" display="file:///60428541/settings"/>
-    <hyperlink ref="A178" r:id="rId71" tooltip="The Most Inappropriate Birthday Card Ever Given to a Seven Year Old" display="file:///59033926/settings"/>
-    <hyperlink ref="A15" r:id="rId72" tooltip="Bounce Bounce Bounce" display="file:///56516060/settings"/>
-    <hyperlink ref="A143" r:id="rId73" tooltip="Shepherd #2" display="file:///56433496/settings"/>
-    <hyperlink ref="A205" r:id="rId74" tooltip="Vanya's Violin Recital" display="file:///56433307/settings"/>
-    <hyperlink ref="A85" r:id="rId75" tooltip="Kolya - Voodoo Fest 2012" display="file:///56432458/settings"/>
-    <hyperlink ref="A197" r:id="rId76" tooltip="Vanya Wins an Impossibly Hard Game" display="file:///52565728/settings"/>
-    <hyperlink ref="A161" r:id="rId77" tooltip="Tailgate Morning Peace" display="file:///52016381/settings"/>
-    <hyperlink ref="A150" r:id="rId78" tooltip="Solo Soccer" display="file:///51681142/settings"/>
-    <hyperlink ref="A133" r:id="rId79" tooltip="Polaris RZR" display="file:///51630449/settings"/>
-    <hyperlink ref="A38" r:id="rId80" tooltip="Couch Diving" display="file:///51629736/settings"/>
-    <hyperlink ref="A135" r:id="rId81" tooltip="Rain Boy" display="file:///51626169/settings"/>
-    <hyperlink ref="A160" r:id="rId82" tooltip="Swing!" display="file:///51626170/settings"/>
-    <hyperlink ref="A164" r:id="rId83" tooltip="Teaching a Baby Cards" display="file:///49635418/settings"/>
-    <hyperlink ref="A210" r:id="rId84" tooltip="Watching the Giraffe from the Animal Planet Lodge" display="file:///45942930/settings"/>
-    <hyperlink ref="A174" r:id="rId85" tooltip="The Boys Pick Up Leggos" display="file:///45942931/settings"/>
-    <hyperlink ref="A151" r:id="rId86" tooltip="Spill at the Schooner Wharf Bar" display="file:///45942929/settings"/>
-    <hyperlink ref="A112" r:id="rId87" tooltip="March with Pooh and Tigger" display="file:///45940964/settings"/>
-    <hyperlink ref="A111" r:id="rId88" tooltip="March of a Happy Kid" display="file:///45940962/settings"/>
-    <hyperlink ref="A23" r:id="rId89" tooltip="Carysfort Reef Lighthouse Starts Flashing for the Night" display="file:///45936859/settings"/>
-    <hyperlink ref="A191" r:id="rId90" tooltip="Vanya Dance Recital 2012 - The Tap" display="file:///44053153/settings"/>
-    <hyperlink ref="A190" r:id="rId91" tooltip="Vanya Dance Recital 2012 - The Ballet" display="file:///44053154/settings"/>
-    <hyperlink ref="A53" r:id="rId92" tooltip="Don't Get a Speeding Ticket, Guys" display="file:///43119210/settings"/>
-    <hyperlink ref="A215" r:id="rId93" tooltip="With the Next Selection of the 2031 NFL Draft, the Moon Colony Rockets Select Kolya Schultz" display="file:///43119207/settings"/>
-    <hyperlink ref="A120" r:id="rId94" tooltip="Moves" display="file:///43119208/settings"/>
-    <hyperlink ref="A125" r:id="rId95" tooltip="New Walker Practices Downhill and with Obsticles" display="file:///43119209/settings"/>
-    <hyperlink ref="A10" r:id="rId96" tooltip="Band in New Orleans" display="file:///41733084/settings"/>
-    <hyperlink ref="A28" r:id="rId97" tooltip="Chief Chocolate Face Calls His Tribe" display="file:///41028203/settings"/>
-    <hyperlink ref="A74" r:id="rId98" tooltip="Hot Dog Night" display="file:///40302576/settings"/>
-    <hyperlink ref="A95" r:id="rId99" tooltip="Lady Ga Ga Aboard" display="file:///40263629/settings"/>
-    <hyperlink ref="A25" r:id="rId100" tooltip="Cattle Stampede" display="file:///37671802/settings"/>
-    <hyperlink ref="A110" r:id="rId101" tooltip="Mamou Mardi Gras Finale" display="file:///37622541/settings"/>
-    <hyperlink ref="A118" r:id="rId102" tooltip="Monkey See - Monkey Do" display="file:///36880920/settings"/>
-    <hyperlink ref="A100" r:id="rId103" tooltip="Loose Tooth" display="file:///36880838/settings"/>
-    <hyperlink ref="A116" r:id="rId104" tooltip="Metallica Kid" display="file:///36880729/settings"/>
-    <hyperlink ref="A32" r:id="rId105" tooltip="Civil Engineering" display="file:///35770059/settings"/>
-    <hyperlink ref="A89" r:id="rId106" tooltip="Kolya Helps Vanya With Homework" display="file:///35727357/settings"/>
-    <hyperlink ref="A75" r:id="rId107" tooltip="Hotel Play, First Night with Kolya" display="file:///34011487/settings"/>
-    <hyperlink ref="A56" r:id="rId108" tooltip="Drive Up to the Orphanage for Gotcha Day" display="file:///34011051/settings"/>
-    <hyperlink ref="A13" r:id="rId109" tooltip="Bizzare Times in the Apple Foam Room" display="file:///33661817/settings"/>
-    <hyperlink ref="A17" r:id="rId110" tooltip="Breathing &quot;Massage&quot; for Kolya" display="file:///33661037/settings"/>
-    <hyperlink ref="A96" r:id="rId111" tooltip="Last Video of Us in the Orphange Play Room" display="file:///33660869/settings"/>
-    <hyperlink ref="A5" r:id="rId112" tooltip="Another Orphanage Visit Video" display="file:///33660585/settings"/>
-    <hyperlink ref="A202" r:id="rId113" tooltip="Vanya's First Snowballs" display="file:///33658914/settings"/>
-    <hyperlink ref="A208" r:id="rId114" tooltip="Violin Practice" display="file:///33583102/settings"/>
-    <hyperlink ref="A130" r:id="rId115" tooltip="Playing With Kolya on 2nd Trip" display="file:///33389238/settings"/>
-    <hyperlink ref="A73" r:id="rId116" tooltip="Homework in Yaroslavl" display="file:///33388431/settings"/>
-    <hyperlink ref="A94" r:id="rId117" tooltip="Kremlin Ceremony" display="file:///33191844/settings"/>
-    <hyperlink ref="A188" r:id="rId118" tooltip="V Doesn't Clean Up" display="file:///33189631/settings"/>
-    <hyperlink ref="A136" r:id="rId119" tooltip="Random Arrival to My Inbox" display="file:///31858617/settings"/>
-    <hyperlink ref="A203" r:id="rId120" tooltip="Vanya's Soccer Game 10/29/11" display="file:///31737600/settings"/>
-    <hyperlink ref="A87" r:id="rId121" tooltip="Kolya at his Orphanage 2" display="file:///31123796/settings"/>
-    <hyperlink ref="A86" r:id="rId122" tooltip="Kolya at His Orphanage" display="file:///31122896/settings"/>
-    <hyperlink ref="A189" r:id="rId123" tooltip="Vanya at Menche's" display="file:///31121908/settings"/>
-    <hyperlink ref="A4" r:id="rId124" tooltip="Annika Can't Work Up The Nerve" display="file:///26173972/settings"/>
-    <hyperlink ref="A66" r:id="rId125" tooltip="Evening Boat Tour of Lake George" display="file:///26167717/settings"/>
-    <hyperlink ref="A20" r:id="rId126" tooltip="Camilla Jumps Off Of Cliff" display="file:///26166164/settings"/>
-    <hyperlink ref="A42" r:id="rId127" tooltip="Crystal Jumps Off Cliff" display="file:///26165295/settings"/>
-    <hyperlink ref="A41" r:id="rId128" tooltip="Crystal Can't Work Up the Nerve" display="file:///26158320/settings"/>
-    <hyperlink ref="A79" r:id="rId129" tooltip="Jake Jumps Off Cliff" display="file:///26141891/settings"/>
-    <hyperlink ref="A12" r:id="rId130" tooltip="Ben Jumps Off Cliff" display="file:///26141649/settings"/>
-    <hyperlink ref="A33" r:id="rId131" tooltip="Clearing Brush" display="file:///26141630/settings"/>
-    <hyperlink ref="A157" r:id="rId132" tooltip="Sunset Over National Harbor" display="file:///25547002/settings"/>
-    <hyperlink ref="A149" r:id="rId133" tooltip="Slowest Sailboat Race Ever" display="file:///25220769/settings"/>
-    <hyperlink ref="A8" r:id="rId134" tooltip="Aunt Crystal Rides" display="file:///25220714/settings"/>
-    <hyperlink ref="A105" r:id="rId135" tooltip="Making Cookies - Part 2" display="file:///24952814/settings"/>
-    <hyperlink ref="A106" r:id="rId136" tooltip="Making Cookies - Part 3" display="file:///24951298/settings"/>
-    <hyperlink ref="A107" r:id="rId137" tooltip="Making Cookies - Part 4" display="file:///24950283/settings"/>
-    <hyperlink ref="A103" r:id="rId138" tooltip="Making Cookies - Finale" display="file:///24950053/settings"/>
-    <hyperlink ref="A104" r:id="rId139" tooltip="Making Cookies - Part 1" display="file:///24949664/settings"/>
-    <hyperlink ref="A186" r:id="rId140" tooltip="Trike-a-Thon 2011.  Trinity Episcopal Pre-K 4" display="file:///23046933/settings"/>
-    <hyperlink ref="A108" r:id="rId141" tooltip="Making Shoes for the Muses Parade" display="file:///23045562/settings"/>
-    <hyperlink ref="A11" r:id="rId142" tooltip="Ben and Vanya at the LSU Baseball Game" display="file:///23041025/settings"/>
-    <hyperlink ref="A63" r:id="rId143" tooltip="Easter Morning 2011" display="file:///22924722/settings"/>
-    <hyperlink ref="A200" r:id="rId144" tooltip="Vanya's Birthday 2011 - Presents at Home" display="file:///19814978/settings"/>
-    <hyperlink ref="A199" r:id="rId145" tooltip="Vanya's Birthday 2011 - Cake" display="file:///19813813/settings"/>
-    <hyperlink ref="A198" r:id="rId146" tooltip="Vanya's 2011 Birthday - Pinata" display="file:///19813606/settings"/>
-    <hyperlink ref="A114" r:id="rId147" tooltip="Meat Tenderizer" display="file:///18725569/settings"/>
-    <hyperlink ref="A175" r:id="rId148" tooltip="The Christmas God-Awful PVC Ferris Wheel" display="file:///18306263/settings"/>
-    <hyperlink ref="A31" r:id="rId149" tooltip="City Park Carousel" display="file:///17754806/settings"/>
-    <hyperlink ref="A134" r:id="rId150" tooltip="Pre-K4 Pilgrims and Indians" display="file:///17754725/settings"/>
-    <hyperlink ref="A60" r:id="rId151" tooltip="Drumming, Dancing" display="file:///17754074/settings"/>
-    <hyperlink ref="A185" r:id="rId152" tooltip="Trick Or Treating 2010" display="file:///17753896/settings"/>
-    <hyperlink ref="A162" r:id="rId153" tooltip="Tailgate Rainstorm" display="file:///17753317/settings"/>
-    <hyperlink ref="A117" r:id="rId154" tooltip="Mike the Tiger" display="file:///15808491/settings"/>
-    <hyperlink ref="A176" r:id="rId155" tooltip="The Lock" display="file:///14919393/settings"/>
-    <hyperlink ref="A115" r:id="rId156" tooltip="Mess" display="file:///14561249/settings"/>
-    <hyperlink ref="A132" r:id="rId157" tooltip="Playroom Cowboy" display="file:///14051534/settings"/>
-    <hyperlink ref="A146" r:id="rId158" tooltip="Singing on the Porch" display="file:///14050144/settings"/>
-    <hyperlink ref="A119" r:id="rId159" tooltip="More Play on the Beach" display="file:///14049203/settings"/>
-    <hyperlink ref="A141" r:id="rId160" tooltip="Run Away" display="file:///14049019/settings"/>
-    <hyperlink ref="A9" r:id="rId161" tooltip="Avalance on the Beach 8/2/2010" display="file:///14048853/settings"/>
-    <hyperlink ref="A126" r:id="rId162" tooltip="Nothing Happens in This One" display="file:///14040718/settings"/>
-    <hyperlink ref="A22" r:id="rId163" tooltip="Car Trip Fight?" display="file:///14040584/settings"/>
-    <hyperlink ref="A187" r:id="rId164" tooltip="Tubing - This One Is For the Conversation" display="file:///14020743/settings"/>
-    <hyperlink ref="A138" r:id="rId165" tooltip="Remote Control Boat" display="file:///14020664/settings"/>
-    <hyperlink ref="A152" r:id="rId166" tooltip="Splinter Removal" display="file:///14020270/settings"/>
-    <hyperlink ref="A68" r:id="rId167" tooltip="First T-Ball Game:  Fielding" display="file:///13045051/settings"/>
-    <hyperlink ref="A7" r:id="rId168" tooltip="At the French Quarter Festival" display="file:///11097122/settings"/>
-    <hyperlink ref="A122" r:id="rId169" tooltip="New Knives" display="file:///11096806/settings"/>
-    <hyperlink ref="A51" r:id="rId170" tooltip="Dinner With Lily" display="file:///10542756/settings"/>
-    <hyperlink ref="A158" r:id="rId171" tooltip="Superhero and Bartender University Just Added a Pre K Section" display="file:///10224361/settings"/>
-    <hyperlink ref="A212" r:id="rId172" tooltip="When the Saints Won the Superbowl" display="file:///9503551/settings"/>
-    <hyperlink ref="A140" r:id="rId173" tooltip="Royal Street after the Superbowl" display="file:///9500768/settings"/>
-    <hyperlink ref="A16" r:id="rId174" tooltip="Bourbon Street after the Superbowl" display="file:///9500417/settings"/>
-    <hyperlink ref="A3" r:id="rId175" tooltip="An Example of Why Sharples Makes Me Laugh" display="file:///9466435/settings"/>
-    <hyperlink ref="A37" r:id="rId176" tooltip="Coming out of Church Superbowl Sunday" display="file:///9406571/settings"/>
-    <hyperlink ref="A70" r:id="rId177" tooltip="French Quarter Before the Game on Superbowl Sunday" display="file:///9405742/settings"/>
-    <hyperlink ref="A102" r:id="rId178" tooltip="Making a Move about a Shark and a Dog" display="file:///9062297/settings"/>
-    <hyperlink ref="A36" r:id="rId179" tooltip="Close Your Eyes and Count to Four, the Sequel" display="file:///9062228/settings"/>
-    <hyperlink ref="A35" r:id="rId180" tooltip="Close Your Eyes and Count to Four" display="file:///9062169/settings"/>
-    <hyperlink ref="A71" r:id="rId181" tooltip="Game Day Drummer (NFC Championship Game Day)" display="file:///9014228/settings"/>
-    <hyperlink ref="A69" r:id="rId182" tooltip="Football with Batman" display="file:///9012706/settings"/>
-    <hyperlink ref="A78" r:id="rId183" tooltip="In the French Quarter on NFC Championship Gameday" display="file:///9012487/settings"/>
-    <hyperlink ref="A21" r:id="rId184" tooltip="Canal St. After the NFC Championship Game" display="file:///9011990/settings"/>
-    <hyperlink ref="A43" r:id="rId185" tooltip="Cutting the Grass in Maine" display="file:///6055193/settings"/>
-    <hyperlink ref="A127" r:id="rId186" tooltip="On the Beach" display="file:///6054747/settings"/>
-    <hyperlink ref="A26" r:id="rId187" tooltip="Chasing Birds in Boston" display="file:///6053533/settings"/>
-    <hyperlink ref="A34" r:id="rId188" tooltip="Clementine" display="file:///6053112/settings"/>
-    <hyperlink ref="A156" r:id="rId189" tooltip="Strongest Man Competition" display="file:///5658016/settings"/>
-    <hyperlink ref="A30" r:id="rId190" tooltip="Christmas Tree Decorating 2008" display="file:///2492003/settings"/>
-    <hyperlink ref="A2" r:id="rId191" tooltip="&quot;I Think He's Going To Be Worse Than Sam&quot;" display="file:///2491522/settings"/>
-    <hyperlink ref="A52" r:id="rId192" tooltip="Disobedient" display="file:///1434059/settings"/>
-    <hyperlink ref="A39" r:id="rId193" tooltip="Crazy Wild Beast" display="file:///1433978/settings"/>
-    <hyperlink ref="A45" r:id="rId194" tooltip="Dan Grooves" display="file:///1261871/settings"/>
-    <hyperlink ref="A145" r:id="rId195" tooltip="Singer in Thailand" display="file:///1261868/settings"/>
-    <hyperlink ref="A44" r:id="rId196" tooltip="Daisy Rolling in the Stink" display="file:///1261867/settings"/>
-    <hyperlink ref="A83" r:id="rId197" tooltip="Kitty Wars" display="file:///1229119/settings"/>
-    <hyperlink ref="A163" r:id="rId198" tooltip="Talking Cat !!?!" display="file:///1228780/settings"/>
-    <hyperlink ref="A131" r:id="rId199" tooltip="Playing with the Goat" display="file:///1203623/settings"/>
-    <hyperlink ref="A24" r:id="rId200" tooltip="Cat House/Goat Search" display="file:///1203621/settings"/>
-    <hyperlink ref="A124" r:id="rId201" tooltip="New Tricycle" display="file:///1119673/settings"/>
-    <hyperlink ref="A109" r:id="rId202" tooltip="Mama's Shoe" display="file:///1119670/settings"/>
-    <hyperlink ref="A64" r:id="rId203" tooltip="Enjoying Bad Country Music" display="file:///1109780/settings"/>
-    <hyperlink ref="A129" r:id="rId204" tooltip="Playing with Dog Toy and Camera" display="file:///1109706/settings"/>
-    <hyperlink ref="A99" r:id="rId205" tooltip="Looking for Maw Maw and Opa" display="file:///1109655/settings"/>
-    <hyperlink ref="A14" r:id="rId206" tooltip="Blossom Steals" display="file:///646905/settings"/>
-    <hyperlink ref="A180" r:id="rId207" tooltip="Three Lazy Beasts" display="file:///467464/settings"/>
-    <hyperlink ref="A27" r:id="rId208" tooltip="Chicken Dance Lemming" display="file:///467457/settings"/>
-    <hyperlink ref="A65" r:id="rId209" tooltip="Enjoying the Singing of the Whos from Whoville" display="file:///407910/settings"/>
-    <hyperlink ref="A195" r:id="rId210" tooltip="Vanya Plays Football, Chase, Etc." display="file:///406304/settings"/>
-    <hyperlink ref="A72" r:id="rId211" tooltip="Hit Me With That Pillow" display="file:///404193/settings"/>
-    <hyperlink ref="A144" r:id="rId212" tooltip="Show Me Your Belly" display="file:///404186/settings"/>
-    <hyperlink ref="A128" r:id="rId213" tooltip="Playing &quot;Here Comes That Old Bird&quot;" display="file:///404171/settings"/>
-    <hyperlink ref="A193" r:id="rId214" tooltip="Vanya getting hit by ball" display="file:///403997/settings"/>
+    <hyperlink ref="C1" display="Modified" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A84" r:id="rId1" tooltip="Koly’s First At Bat" display="file:///324403888/settings" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A213" r:id="rId2" tooltip="Who Eats Boogers?" display="file:///323991180/settings" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A192" r:id="rId3" tooltip="Vanya Dices" display="file:///322646713/settings" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A177" r:id="rId4" tooltip="The Longest Description" display="file:///314079416/settings" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A77" r:id="rId5" tooltip="IMG_0003" display="file:///267306710/settings" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A139" r:id="rId6" tooltip="rig inspection" display="file:///262221598/settings" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A62" r:id="rId7" tooltip="Dunham Honor Choir - Christmas Songs 2016" display="file:///194259860/settings" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A154" r:id="rId8" tooltip="St Lilian Academy Christmas Show (Older Kids) 1" display="file:///161715473/settings" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="A93" r:id="rId9" tooltip="Kolya's School Presentation" display="file:///160294977/settings" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="A182" r:id="rId10" tooltip="Toilet Singing" display="file:///160294908/settings" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A211" r:id="rId11" tooltip="What Did Your Mom Tell You?" display="file:///159732659/settings" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="A201" r:id="rId12" tooltip="Vanya's Chapel Skit" display="file:///159721635/settings" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="A207" r:id="rId13" tooltip="Vanyaction" display="file:///159721594/settings" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A47" r:id="rId14" tooltip="Dance Party" display="file:///159721583/settings" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="A214" r:id="rId15" tooltip="Who Had Fun at the Parade Tonight?" display="file:///159721579/settings" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A55" r:id="rId16" tooltip="Double Sneaky Cats" display="file:///159721568/settings" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="A92" r:id="rId17" tooltip="Kolya's Knock Knock Joke" display="file:///159721557/settings" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="A97" r:id="rId18" tooltip="Lego Bulding" display="file:///159721543/settings" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A137" r:id="rId19" tooltip="Really, Really, Really Hard Knock Life" display="file:///159721536/settings" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="A90" r:id="rId20" tooltip="Kolya is Making a Movie" display="file:///159721526/settings" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="A147" r:id="rId21" tooltip="Sk8ters" display="file:///159721516/settings" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A61" r:id="rId22" tooltip="Dunham Halloween Carnival Day" display="file:///159721490/settings" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="A49" r:id="rId23" tooltip="Demo Day Kolya's Dance Class" display="file:///159721475/settings" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="A153" r:id="rId24" tooltip="Square Dancing" display="file:///159651315/settings" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="A59" r:id="rId25" tooltip="Drone Test - Stuck in Tree" display="file:///153437243/settings" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="A58" r:id="rId26" tooltip="Drone Flight - Goodwood Park" display="file:///153437208/settings" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A142" r:id="rId27" tooltip="Sailing into Mandeville 2015-10-17" display="file:///142957004/settings" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="A194" r:id="rId28" tooltip="Vanya Opens Birthday Presents" display="file:///130789591/settings" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="A148" r:id="rId29" tooltip="Slow Damn Train" display="file:///130570160/settings" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A101" r:id="rId30" tooltip="Louisiana Marathon Drone Mishap" display="file:///130486363/settings" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="A171" r:id="rId31" tooltip="Test Flight 5 - Westdale Middle School" display="file:///130363841/settings" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A169" r:id="rId32" tooltip="Test Flight 3 - Westdale Middle School" display="file:///130363838/settings" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="A170" r:id="rId33" tooltip="Test Flight 4 - Westdale Middle School" display="file:///130363840/settings" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="A167" r:id="rId34" tooltip="Test Flight 1 - Westdale Middle School" display="file:///130363834/settings" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A168" r:id="rId35" tooltip="Test Flight 2 - Westdale Middle School" display="file:///130363836/settings" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="A50" r:id="rId36" tooltip="Dinghy Captain Practice" display="file:///130363252/settings" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="A29" r:id="rId37" tooltip="Christmas Morning 2014" display="file:///130271126/settings" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="A172" r:id="rId38" tooltip="Test Flight at My House" display="file:///130265122/settings" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="A155" r:id="rId39" tooltip="St Lilian Academy Christmas Show 2014 (Big Kid Group)" display="file:///130263083/settings" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A166" r:id="rId40" tooltip="Test Flight" display="file:///130253338/settings" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A183" r:id="rId41" tooltip="Toilet Singing" display="file:///130251912/settings" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A209" r:id="rId42" tooltip="Voodoo Dancing 2015" display="file:///130239757/settings" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A184" r:id="rId43" tooltip="Trick or Treat Practice" display="file:///116100007/settings" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="A181" r:id="rId44" tooltip="Three Minutes Just the Other Day" display="file:///115911668/settings" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="A98" r:id="rId45" tooltip="Look at Sandra Dee" display="file:///115824161/settings" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A76" r:id="rId46" tooltip="If You're Sailing With Me, Don't Be Afraid to Dance Bottomless" display="file:///99699615/settings" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="A67" r:id="rId47" tooltip="Exploring the wildlife at a secluded Florida anchorage." display="file:///99697885/settings" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A123" r:id="rId48" tooltip="New Swimmer" display="file:///97777878/settings" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="A159" r:id="rId49" tooltip="Swim Kids" display="file:///97777879/settings" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="A80" r:id="rId50" tooltip="Jesus Camp Play" display="file:///97689396/settings" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A48" r:id="rId51" tooltip="Dance Party" display="file:///93940290/settings" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="A40" r:id="rId52" tooltip="Creepiest Pop-Up Ad Ever" display="file:///93940292/settings" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="A81" r:id="rId53" tooltip="Just a Day on the Swings" display="file:///93937125/settings" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A165" r:id="rId54" tooltip="Tedium in Column Highlighting" display="file:///93936938/settings" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="A57" r:id="rId55" tooltip="Driving the Train" display="file:///93936925/settings" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A54" r:id="rId56" tooltip="Don't Get a Speeding Ticket, Lady" display="file:///93936926/settings" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="A82" r:id="rId57" tooltip="K's 3rd Birthday" display="file:///83546174/settings" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="A91" r:id="rId58" tooltip="Kolya School Xmas" display="file:///83545684/settings" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A196" r:id="rId59" tooltip="Vanya School Xmas 2013" display="file:///82955738/settings" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="A88" r:id="rId60" tooltip="Kolya cut and paste crafts" display="file:///77496129/settings" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="A204" r:id="rId61" tooltip="Vanya's Spring Violin Recital" display="file:///77496130/settings" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A206" r:id="rId62" tooltip="Vanya's Voice Recital - Spring 2012" display="file:///77451065/settings" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="A18" r:id="rId63" tooltip="Brother D-Day, Brother Flounder, Meet Brother Bluto" display="file:///77448013/settings" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A173" r:id="rId64" tooltip="Testing the Really Big Slide at New Orleans City Park" display="file:///77447726/settings" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="A121" r:id="rId65" tooltip="MVI 0544" display="file:///77429020/settings" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A19" r:id="rId66" tooltip="Brothers" display="file:///73741726/settings" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="A6" r:id="rId67" tooltip="At Anchor, Annapolis, MD" display="file:///73738599/settings" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="A46" r:id="rId68" tooltip="Dance Like There's No One Watching" display="file:///73423079/settings" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A179" r:id="rId69" tooltip="This Cat Hates My Mom" display="file:///61238332/settings" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="A113" r:id="rId70" tooltip="Mardi Gras Indians 2013" display="file:///60428541/settings" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A178" r:id="rId71" tooltip="The Most Inappropriate Birthday Card Ever Given to a Seven Year Old" display="file:///59033926/settings" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A15" r:id="rId72" tooltip="Bounce Bounce Bounce" display="file:///56516060/settings" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="A143" r:id="rId73" tooltip="Shepherd #2" display="file:///56433496/settings" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A205" r:id="rId74" tooltip="Vanya's Violin Recital" display="file:///56433307/settings" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A85" r:id="rId75" tooltip="Kolya - Voodoo Fest 2012" display="file:///56432458/settings" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="A197" r:id="rId76" tooltip="Vanya Wins an Impossibly Hard Game" display="file:///52565728/settings" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="A161" r:id="rId77" tooltip="Tailgate Morning Peace" display="file:///52016381/settings" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A150" r:id="rId78" tooltip="Solo Soccer" display="file:///51681142/settings" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="A133" r:id="rId79" tooltip="Polaris RZR" display="file:///51630449/settings" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="A38" r:id="rId80" tooltip="Couch Diving" display="file:///51629736/settings" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A135" r:id="rId81" tooltip="Rain Boy" display="file:///51626169/settings" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="A160" r:id="rId82" tooltip="Swing!" display="file:///51626170/settings" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A164" r:id="rId83" tooltip="Teaching a Baby Cards" display="file:///49635418/settings" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="A210" r:id="rId84" tooltip="Watching the Giraffe from the Animal Planet Lodge" display="file:///45942930/settings" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A174" r:id="rId85" tooltip="The Boys Pick Up Leggos" display="file:///45942931/settings" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="A151" r:id="rId86" tooltip="Spill at the Schooner Wharf Bar" display="file:///45942929/settings" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="A112" r:id="rId87" tooltip="March with Pooh and Tigger" display="file:///45940964/settings" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A111" r:id="rId88" tooltip="March of a Happy Kid" display="file:///45940962/settings" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="A23" r:id="rId89" tooltip="Carysfort Reef Lighthouse Starts Flashing for the Night" display="file:///45936859/settings" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="A191" r:id="rId90" tooltip="Vanya Dance Recital 2012 - The Tap" display="file:///44053153/settings" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A190" r:id="rId91" tooltip="Vanya Dance Recital 2012 - The Ballet" display="file:///44053154/settings" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="A53" r:id="rId92" tooltip="Don't Get a Speeding Ticket, Guys" display="file:///43119210/settings" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A215" r:id="rId93" tooltip="With the Next Selection of the 2031 NFL Draft, the Moon Colony Rockets Select Kolya Schultz" display="file:///43119207/settings" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="A120" r:id="rId94" tooltip="Moves" display="file:///43119208/settings" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="A125" r:id="rId95" tooltip="New Walker Practices Downhill and with Obsticles" display="file:///43119209/settings" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A10" r:id="rId96" tooltip="Band in New Orleans" display="file:///41733084/settings" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="A28" r:id="rId97" tooltip="Chief Chocolate Face Calls His Tribe" display="file:///41028203/settings" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A74" r:id="rId98" tooltip="Hot Dog Night" display="file:///40302576/settings" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="A95" r:id="rId99" tooltip="Lady Ga Ga Aboard" display="file:///40263629/settings" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="A25" r:id="rId100" tooltip="Cattle Stampede" display="file:///37671802/settings" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A110" r:id="rId101" tooltip="Mamou Mardi Gras Finale" display="file:///37622541/settings" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="A118" r:id="rId102" tooltip="Monkey See - Monkey Do" display="file:///36880920/settings" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A100" r:id="rId103" tooltip="Loose Tooth" display="file:///36880838/settings" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="A116" r:id="rId104" tooltip="Metallica Kid" display="file:///36880729/settings" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="A32" r:id="rId105" tooltip="Civil Engineering" display="file:///35770059/settings" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A89" r:id="rId106" tooltip="Kolya Helps Vanya With Homework" display="file:///35727357/settings" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="A75" r:id="rId107" tooltip="Hotel Play, First Night with Kolya" display="file:///34011487/settings" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A56" r:id="rId108" tooltip="Drive Up to the Orphanage for Gotcha Day" display="file:///34011051/settings" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A13" r:id="rId109" tooltip="Bizzare Times in the Apple Foam Room" display="file:///33661817/settings" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="A17" r:id="rId110" tooltip="Breathing &quot;Massage&quot; for Kolya" display="file:///33661037/settings" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A96" r:id="rId111" tooltip="Last Video of Us in the Orphange Play Room" display="file:///33660869/settings" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="A5" r:id="rId112" tooltip="Another Orphanage Visit Video" display="file:///33660585/settings" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A202" r:id="rId113" tooltip="Vanya's First Snowballs" display="file:///33658914/settings" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="A208" r:id="rId114" tooltip="Violin Practice" display="file:///33583102/settings" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="A130" r:id="rId115" tooltip="Playing With Kolya on 2nd Trip" display="file:///33389238/settings" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="A73" r:id="rId116" tooltip="Homework in Yaroslavl" display="file:///33388431/settings" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A94" r:id="rId117" tooltip="Kremlin Ceremony" display="file:///33191844/settings" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="A188" r:id="rId118" tooltip="V Doesn't Clean Up" display="file:///33189631/settings" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="A136" r:id="rId119" tooltip="Random Arrival to My Inbox" display="file:///31858617/settings" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="A203" r:id="rId120" tooltip="Vanya's Soccer Game 10/29/11" display="file:///31737600/settings" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="A87" r:id="rId121" tooltip="Kolya at his Orphanage 2" display="file:///31123796/settings" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="A86" r:id="rId122" tooltip="Kolya at His Orphanage" display="file:///31122896/settings" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A189" r:id="rId123" tooltip="Vanya at Menche's" display="file:///31121908/settings" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="A4" r:id="rId124" tooltip="Annika Can't Work Up The Nerve" display="file:///26173972/settings" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="A66" r:id="rId125" tooltip="Evening Boat Tour of Lake George" display="file:///26167717/settings" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="A20" r:id="rId126" tooltip="Camilla Jumps Off Of Cliff" display="file:///26166164/settings" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="A42" r:id="rId127" tooltip="Crystal Jumps Off Cliff" display="file:///26165295/settings" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="A41" r:id="rId128" tooltip="Crystal Can't Work Up the Nerve" display="file:///26158320/settings" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="A79" r:id="rId129" tooltip="Jake Jumps Off Cliff" display="file:///26141891/settings" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="A12" r:id="rId130" tooltip="Ben Jumps Off Cliff" display="file:///26141649/settings" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="A33" r:id="rId131" tooltip="Clearing Brush" display="file:///26141630/settings" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="A157" r:id="rId132" tooltip="Sunset Over National Harbor" display="file:///25547002/settings" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="A149" r:id="rId133" tooltip="Slowest Sailboat Race Ever" display="file:///25220769/settings" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="A8" r:id="rId134" tooltip="Aunt Crystal Rides" display="file:///25220714/settings" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="A105" r:id="rId135" tooltip="Making Cookies - Part 2" display="file:///24952814/settings" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="A106" r:id="rId136" tooltip="Making Cookies - Part 3" display="file:///24951298/settings" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="A107" r:id="rId137" tooltip="Making Cookies - Part 4" display="file:///24950283/settings" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="A103" r:id="rId138" tooltip="Making Cookies - Finale" display="file:///24950053/settings" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="A104" r:id="rId139" tooltip="Making Cookies - Part 1" display="file:///24949664/settings" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="A186" r:id="rId140" tooltip="Trike-a-Thon 2011.  Trinity Episcopal Pre-K 4" display="file:///23046933/settings" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="A108" r:id="rId141" tooltip="Making Shoes for the Muses Parade" display="file:///23045562/settings" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="A11" r:id="rId142" tooltip="Ben and Vanya at the LSU Baseball Game" display="file:///23041025/settings" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="A63" r:id="rId143" tooltip="Easter Morning 2011" display="file:///22924722/settings" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="A200" r:id="rId144" tooltip="Vanya's Birthday 2011 - Presents at Home" display="file:///19814978/settings" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="A199" r:id="rId145" tooltip="Vanya's Birthday 2011 - Cake" display="file:///19813813/settings" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="A198" r:id="rId146" tooltip="Vanya's 2011 Birthday - Pinata" display="file:///19813606/settings" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="A114" r:id="rId147" tooltip="Meat Tenderizer" display="file:///18725569/settings" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="A175" r:id="rId148" tooltip="The Christmas God-Awful PVC Ferris Wheel" display="file:///18306263/settings" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="A31" r:id="rId149" tooltip="City Park Carousel" display="file:///17754806/settings" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="A134" r:id="rId150" tooltip="Pre-K4 Pilgrims and Indians" display="file:///17754725/settings" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="A60" r:id="rId151" tooltip="Drumming, Dancing" display="file:///17754074/settings" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="A185" r:id="rId152" tooltip="Trick Or Treating 2010" display="file:///17753896/settings" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="A162" r:id="rId153" tooltip="Tailgate Rainstorm" display="file:///17753317/settings" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="A117" r:id="rId154" tooltip="Mike the Tiger" display="file:///15808491/settings" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="A176" r:id="rId155" tooltip="The Lock" display="file:///14919393/settings" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="A115" r:id="rId156" tooltip="Mess" display="file:///14561249/settings" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="A132" r:id="rId157" tooltip="Playroom Cowboy" display="file:///14051534/settings" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="A146" r:id="rId158" tooltip="Singing on the Porch" display="file:///14050144/settings" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="A119" r:id="rId159" tooltip="More Play on the Beach" display="file:///14049203/settings" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="A141" r:id="rId160" tooltip="Run Away" display="file:///14049019/settings" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="A9" r:id="rId161" tooltip="Avalance on the Beach 8/2/2010" display="file:///14048853/settings" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="A126" r:id="rId162" tooltip="Nothing Happens in This One" display="file:///14040718/settings" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="A22" r:id="rId163" tooltip="Car Trip Fight?" display="file:///14040584/settings" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="A187" r:id="rId164" tooltip="Tubing - This One Is For the Conversation" display="file:///14020743/settings" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="A138" r:id="rId165" tooltip="Remote Control Boat" display="file:///14020664/settings" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="A152" r:id="rId166" tooltip="Splinter Removal" display="file:///14020270/settings" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="A68" r:id="rId167" tooltip="First T-Ball Game:  Fielding" display="file:///13045051/settings" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="A7" r:id="rId168" tooltip="At the French Quarter Festival" display="file:///11097122/settings" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="A122" r:id="rId169" tooltip="New Knives" display="file:///11096806/settings" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="A51" r:id="rId170" tooltip="Dinner With Lily" display="file:///10542756/settings" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="A158" r:id="rId171" tooltip="Superhero and Bartender University Just Added a Pre K Section" display="file:///10224361/settings" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="A212" r:id="rId172" tooltip="When the Saints Won the Superbowl" display="file:///9503551/settings" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="A140" r:id="rId173" tooltip="Royal Street after the Superbowl" display="file:///9500768/settings" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="A16" r:id="rId174" tooltip="Bourbon Street after the Superbowl" display="file:///9500417/settings" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="A3" r:id="rId175" tooltip="An Example of Why Sharples Makes Me Laugh" display="file:///9466435/settings" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="A37" r:id="rId176" tooltip="Coming out of Church Superbowl Sunday" display="file:///9406571/settings" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="A70" r:id="rId177" tooltip="French Quarter Before the Game on Superbowl Sunday" display="file:///9405742/settings" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="A102" r:id="rId178" tooltip="Making a Move about a Shark and a Dog" display="file:///9062297/settings" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="A36" r:id="rId179" tooltip="Close Your Eyes and Count to Four, the Sequel" display="file:///9062228/settings" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="A35" r:id="rId180" tooltip="Close Your Eyes and Count to Four" display="file:///9062169/settings" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="A71" r:id="rId181" tooltip="Game Day Drummer (NFC Championship Game Day)" display="file:///9014228/settings" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="A69" r:id="rId182" tooltip="Football with Batman" display="file:///9012706/settings" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="A78" r:id="rId183" tooltip="In the French Quarter on NFC Championship Gameday" display="file:///9012487/settings" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="A21" r:id="rId184" tooltip="Canal St. After the NFC Championship Game" display="file:///9011990/settings" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="A43" r:id="rId185" tooltip="Cutting the Grass in Maine" display="file:///6055193/settings" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="A127" r:id="rId186" tooltip="On the Beach" display="file:///6054747/settings" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="A26" r:id="rId187" tooltip="Chasing Birds in Boston" display="file:///6053533/settings" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="A34" r:id="rId188" tooltip="Clementine" display="file:///6053112/settings" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="A156" r:id="rId189" tooltip="Strongest Man Competition" display="file:///5658016/settings" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="A30" r:id="rId190" tooltip="Christmas Tree Decorating 2008" display="file:///2492003/settings" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="A2" r:id="rId191" tooltip="&quot;I Think He's Going To Be Worse Than Sam&quot;" display="file:///2491522/settings" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="A52" r:id="rId192" tooltip="Disobedient" display="file:///1434059/settings" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="A39" r:id="rId193" tooltip="Crazy Wild Beast" display="file:///1433978/settings" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="A45" r:id="rId194" tooltip="Dan Grooves" display="file:///1261871/settings" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="A145" r:id="rId195" tooltip="Singer in Thailand" display="file:///1261868/settings" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="A44" r:id="rId196" tooltip="Daisy Rolling in the Stink" display="file:///1261867/settings" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="A83" r:id="rId197" tooltip="Kitty Wars" display="file:///1229119/settings" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="A163" r:id="rId198" tooltip="Talking Cat !!?!" display="file:///1228780/settings" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="A131" r:id="rId199" tooltip="Playing with the Goat" display="file:///1203623/settings" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="A24" r:id="rId200" tooltip="Cat House/Goat Search" display="file:///1203621/settings" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="A124" r:id="rId201" tooltip="New Tricycle" display="file:///1119673/settings" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="A109" r:id="rId202" tooltip="Mama's Shoe" display="file:///1119670/settings" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="A64" r:id="rId203" tooltip="Enjoying Bad Country Music" display="file:///1109780/settings" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="A129" r:id="rId204" tooltip="Playing with Dog Toy and Camera" display="file:///1109706/settings" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="A99" r:id="rId205" tooltip="Looking for Maw Maw and Opa" display="file:///1109655/settings" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="A14" r:id="rId206" tooltip="Blossom Steals" display="file:///646905/settings" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="A180" r:id="rId207" tooltip="Three Lazy Beasts" display="file:///467464/settings" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="A27" r:id="rId208" tooltip="Chicken Dance Lemming" display="file:///467457/settings" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="A65" r:id="rId209" tooltip="Enjoying the Singing of the Whos from Whoville" display="file:///407910/settings" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="A195" r:id="rId210" tooltip="Vanya Plays Football, Chase, Etc." display="file:///406304/settings" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="A72" r:id="rId211" tooltip="Hit Me With That Pillow" display="file:///404193/settings" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="A144" r:id="rId212" tooltip="Show Me Your Belly" display="file:///404186/settings" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="A128" r:id="rId213" tooltip="Playing &quot;Here Comes That Old Bird&quot;" display="file:///404171/settings" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="A193" r:id="rId214" tooltip="Vanya getting hit by ball" display="file:///403997/settings" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>219</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4774,15 +5039,42 @@
       <c r="A11">
         <v>2116098</v>
       </c>
+      <c r="B11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1818656</v>
       </c>
+      <c r="B12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1730821</v>
+      </c>
+      <c r="B13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">

--- a/ben-build tools/old video catalog/vimeo-table.xlsx
+++ b/ben-build tools/old video catalog/vimeo-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/XCode/projects/Publish Web Sites/theskinny/ben-build tools/old video catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6061940-2A63-4844-A821-D3251E6593B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495604F5-AB0A-B742-BFBF-04F68FF52167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="3280" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18160" yWindow="4400" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vimeo-table" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="237">
   <si>
     <t>Privacy</t>
   </si>
@@ -723,6 +723,18 @@
   </si>
   <si>
     <t>Family Videos from Russia 2012</t>
+  </si>
+  <si>
+    <t>Lake George, NY - June 2011</t>
+  </si>
+  <si>
+    <t>Home Movies (Vanya): December 2010 - November 2011</t>
+  </si>
+  <si>
+    <t>Heather and Vanya Make Cookies</t>
+  </si>
+  <si>
+    <t>Home Movies (Vanya):  November 2009 - November 2010</t>
   </si>
 </sst>
 </file>
@@ -1623,8 +1635,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="D208" sqref="D208:E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1748,7 +1760,12 @@
       <c r="C8" s="6">
         <v>40710.952777777777</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8">
+        <v>1508748</v>
+      </c>
+      <c r="E8" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -1784,7 +1801,12 @@
       <c r="C11" s="6">
         <v>40662.338888888888</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11">
+        <v>1508748</v>
+      </c>
+      <c r="E11" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -3188,7 +3210,12 @@
       <c r="C108" s="6">
         <v>40662.424305555556</v>
       </c>
-      <c r="D108" s="3"/>
+      <c r="D108">
+        <v>1508748</v>
+      </c>
+      <c r="E108" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="109" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
@@ -3270,7 +3297,12 @@
       <c r="C114" s="6">
         <v>40555.707638888889</v>
       </c>
-      <c r="D114" s="3"/>
+      <c r="D114">
+        <v>1508748</v>
+      </c>
+      <c r="E114" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
@@ -4294,7 +4326,12 @@
       <c r="C186" s="6">
         <v>40662.445833333331</v>
       </c>
-      <c r="D186" s="3"/>
+      <c r="D186">
+        <v>1508748</v>
+      </c>
+      <c r="E186" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="187" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
@@ -4318,7 +4355,12 @@
       <c r="C188" s="6">
         <v>40882.736111111109</v>
       </c>
-      <c r="D188" s="3"/>
+      <c r="D188">
+        <v>1508748</v>
+      </c>
+      <c r="E188" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="189" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
@@ -4330,7 +4372,12 @@
       <c r="C189" s="6">
         <v>40841.884722222225</v>
       </c>
-      <c r="D189" s="3"/>
+      <c r="D189">
+        <v>1508748</v>
+      </c>
+      <c r="E189" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="190" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
@@ -4376,7 +4423,12 @@
       <c r="C192" s="6">
         <v>43534.64166666667</v>
       </c>
-      <c r="D192" s="3"/>
+      <c r="D192">
+        <v>1508748</v>
+      </c>
+      <c r="E192" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="193" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
@@ -4473,7 +4525,12 @@
       <c r="C198" s="6">
         <v>40584.811111111114</v>
       </c>
-      <c r="D198" s="3"/>
+      <c r="D198">
+        <v>1508748</v>
+      </c>
+      <c r="E198" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="199" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
@@ -4485,7 +4542,12 @@
       <c r="C199" s="6">
         <v>40584.817361111112</v>
       </c>
-      <c r="D199" s="3"/>
+      <c r="D199">
+        <v>1508748</v>
+      </c>
+      <c r="E199" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="200" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
@@ -4538,7 +4600,12 @@
       <c r="C203" s="6">
         <v>40854.463194444441</v>
       </c>
-      <c r="D203" s="3"/>
+      <c r="D203">
+        <v>1508748</v>
+      </c>
+      <c r="E203" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="204" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
@@ -4618,7 +4685,12 @@
       <c r="C208" s="6">
         <v>40890.074999999997</v>
       </c>
-      <c r="D208" s="3"/>
+      <c r="D208">
+        <v>1508748</v>
+      </c>
+      <c r="E208" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="209" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
@@ -4959,12 +5031,12 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34.83203125" customWidth="1"/>
+    <col min="2" max="2" width="49.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -4982,6 +5054,9 @@
       <c r="B2" t="s">
         <v>215</v>
       </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -4990,6 +5065,9 @@
       <c r="B3" t="s">
         <v>216</v>
       </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -4998,6 +5076,9 @@
       <c r="B4" t="s">
         <v>217</v>
       </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -5006,6 +5087,9 @@
       <c r="B5" t="s">
         <v>218</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -5081,21 +5165,48 @@
       <c r="A14">
         <v>1508748</v>
       </c>
+      <c r="B14" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1671571</v>
       </c>
+      <c r="B15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1623831</v>
       </c>
+      <c r="B16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1087859</v>
       </c>
+      <c r="B17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -5131,6 +5242,9 @@
       </c>
       <c r="B23" t="s">
         <v>228</v>
+      </c>
+      <c r="C23">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ben-build tools/old video catalog/vimeo-table.xlsx
+++ b/ben-build tools/old video catalog/vimeo-table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/XCode/projects/Publish Web Sites/theskinny/ben-build tools/old video catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495604F5-AB0A-B742-BFBF-04F68FF52167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE50AA2-6F09-E04F-A294-092D832AEDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18160" yWindow="4400" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12920" yWindow="4360" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vimeo-table" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="237">
   <si>
     <t>Privacy</t>
   </si>
@@ -741,7 +741,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -905,6 +905,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1C00CF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1249,7 +1255,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1276,6 +1282,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1635,8 +1642,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="D208" sqref="D208:E208"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104:E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1692,7 +1699,7 @@
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>124</v>
       </c>
@@ -1702,7 +1709,12 @@
       <c r="C4" s="6">
         <v>40732.597222222219</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3">
+        <v>1671571</v>
+      </c>
+      <c r="E4" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
@@ -1750,7 +1762,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>134</v>
       </c>
@@ -1791,7 +1803,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>142</v>
       </c>
@@ -1808,7 +1820,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>130</v>
       </c>
@@ -1818,7 +1830,12 @@
       <c r="C12" s="6">
         <v>40731.879861111112</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>1671571</v>
+      </c>
+      <c r="E12" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -1861,7 +1878,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>174</v>
       </c>
@@ -1871,7 +1888,12 @@
       <c r="C16" s="6">
         <v>40225.52847222222</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>1671571</v>
+      </c>
+      <c r="E16" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
@@ -2110,7 +2132,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>131</v>
       </c>
@@ -2120,7 +2142,12 @@
       <c r="C33" s="6">
         <v>40731.879166666666</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3">
+        <v>1671571</v>
+      </c>
+      <c r="E33" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
@@ -2216,7 +2243,7 @@
       </c>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>128</v>
       </c>
@@ -2226,9 +2253,14 @@
       <c r="C41" s="6">
         <v>40732.338194444441</v>
       </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D41" s="3">
+        <v>1671571</v>
+      </c>
+      <c r="E41" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>127</v>
       </c>
@@ -2238,7 +2270,12 @@
       <c r="C42" s="6">
         <v>40732.45416666667</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3">
+        <v>1671571</v>
+      </c>
+      <c r="E42" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
@@ -2576,7 +2613,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>125</v>
       </c>
@@ -2586,7 +2623,12 @@
       <c r="C66" s="6">
         <v>40732.491666666669</v>
       </c>
-      <c r="D66" s="3"/>
+      <c r="D66" s="3">
+        <v>1671571</v>
+      </c>
+      <c r="E66" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
@@ -2767,7 +2809,7 @@
       </c>
       <c r="D78" s="3"/>
     </row>
-    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>129</v>
       </c>
@@ -2777,7 +2819,12 @@
       <c r="C79" s="6">
         <v>40731.886111111111</v>
       </c>
-      <c r="D79" s="3"/>
+      <c r="D79" s="3">
+        <v>1671571</v>
+      </c>
+      <c r="E79" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
@@ -3150,7 +3197,12 @@
       <c r="C103" s="6">
         <v>40704.95416666667</v>
       </c>
-      <c r="D103" s="3"/>
+      <c r="D103" s="10">
+        <v>1621831</v>
+      </c>
+      <c r="E103" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
@@ -3162,7 +3214,12 @@
       <c r="C104" s="6">
         <v>40704.939583333333</v>
       </c>
-      <c r="D104" s="3"/>
+      <c r="D104" s="10">
+        <v>1621831</v>
+      </c>
+      <c r="E104" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
@@ -3174,7 +3231,12 @@
       <c r="C105" s="6">
         <v>40705.076388888891</v>
       </c>
-      <c r="D105" s="3"/>
+      <c r="D105" s="10">
+        <v>1621831</v>
+      </c>
+      <c r="E105" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
@@ -3186,7 +3248,12 @@
       <c r="C106" s="6">
         <v>40705.007638888892</v>
       </c>
-      <c r="D106" s="3"/>
+      <c r="D106" s="10">
+        <v>1621831</v>
+      </c>
+      <c r="E106" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
@@ -3198,9 +3265,14 @@
       <c r="C107" s="6">
         <v>40704.963194444441</v>
       </c>
-      <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D107" s="10">
+        <v>1621831</v>
+      </c>
+      <c r="E107" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>141</v>
       </c>
@@ -3287,7 +3359,7 @@
       </c>
       <c r="D113" s="3"/>
     </row>
-    <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>147</v>
       </c>
@@ -4316,7 +4388,7 @@
       </c>
       <c r="D185" s="3"/>
     </row>
-    <row r="186" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>140</v>
       </c>
@@ -4345,7 +4417,7 @@
       </c>
       <c r="D187" s="3"/>
     </row>
-    <row r="188" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>118</v>
       </c>
@@ -4362,7 +4434,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>123</v>
       </c>
@@ -4413,7 +4485,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>5</v>
       </c>
@@ -4515,7 +4587,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>146</v>
       </c>
@@ -4532,7 +4604,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>145</v>
       </c>
@@ -4590,7 +4662,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>120</v>
       </c>
@@ -4675,7 +4747,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>114</v>
       </c>
@@ -5031,7 +5103,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5185,6 +5257,9 @@
       <c r="C15">
         <v>8</v>
       </c>
+      <c r="D15" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -5195,6 +5270,9 @@
       </c>
       <c r="C16">
         <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">

--- a/ben-build tools/old video catalog/vimeo-table.xlsx
+++ b/ben-build tools/old video catalog/vimeo-table.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/XCode/projects/Publish Web Sites/theskinny/ben-build tools/old video catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE50AA2-6F09-E04F-A294-092D832AEDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5B4660-46E6-F04B-A3B8-CC06B8E44A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="4360" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="3560" windowWidth="23260" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vimeo-table" sheetId="1" r:id="rId1"/>
-    <sheet name="collections1769241" sheetId="2" r:id="rId2"/>
+    <sheet name="collections" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'vimeo-table'!$A$1:$E$215</definedName>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="237">
   <si>
     <t>Privacy</t>
   </si>
@@ -1642,8 +1642,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104:E107"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1760,7 +1760,12 @@
       <c r="C7" s="6">
         <v>40288.915972222225</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7">
+        <v>1769241</v>
+      </c>
+      <c r="E7" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -1779,7 +1784,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>161</v>
       </c>
@@ -1789,7 +1794,12 @@
       <c r="C9" s="6">
         <v>40400.856249999997</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E9" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -1970,7 +1980,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>163</v>
       </c>
@@ -1980,7 +1990,12 @@
       <c r="C22" s="6">
         <v>40400.612500000003</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E22" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
@@ -1992,7 +2007,12 @@
       <c r="C23" s="6">
         <v>41107.761111111111</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23">
+        <v>1769241</v>
+      </c>
+      <c r="E23" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
@@ -2021,7 +2041,12 @@
       <c r="C25" s="6">
         <v>40968.422222222223</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25">
+        <v>1769241</v>
+      </c>
+      <c r="E25" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
@@ -2166,7 +2191,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>180</v>
       </c>
@@ -2176,9 +2201,14 @@
       <c r="C35" s="6">
         <v>40207.022222222222</v>
       </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D35" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E35" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>179</v>
       </c>
@@ -2188,7 +2218,12 @@
       <c r="C36" s="6">
         <v>40207.025000000001</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E36" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
@@ -2241,7 +2276,12 @@
       <c r="C40" s="6">
         <v>41763.961805555555</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40">
+        <v>1769241</v>
+      </c>
+      <c r="E40" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="41" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
@@ -2449,7 +2489,12 @@
       <c r="C54" s="6">
         <v>41763.938888888886</v>
       </c>
-      <c r="D54" s="3"/>
+      <c r="D54">
+        <v>1769241</v>
+      </c>
+      <c r="E54" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
@@ -2526,7 +2571,7 @@
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>151</v>
       </c>
@@ -2536,7 +2581,12 @@
       <c r="C60" s="6">
         <v>40525.068055555559</v>
       </c>
-      <c r="D60" s="3"/>
+      <c r="D60" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E60" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
@@ -2647,7 +2697,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>167</v>
       </c>
@@ -2657,7 +2707,12 @@
       <c r="C68" s="6">
         <v>40361.713194444441</v>
       </c>
-      <c r="D68" s="3"/>
+      <c r="D68" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E68" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
@@ -3059,7 +3114,12 @@
       <c r="C94" s="6">
         <v>40882.770138888889</v>
       </c>
-      <c r="D94" s="3"/>
+      <c r="D94">
+        <v>1769241</v>
+      </c>
+      <c r="E94" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="95" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
@@ -3173,9 +3233,14 @@
       <c r="C101" s="6">
         <v>42166.688194444447</v>
       </c>
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>1769241</v>
+      </c>
+      <c r="E101" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>178</v>
       </c>
@@ -3185,9 +3250,14 @@
       <c r="C102" s="6">
         <v>40207.029861111114</v>
       </c>
-      <c r="D102" s="3"/>
-    </row>
-    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D102" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E102" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>138</v>
       </c>
@@ -3204,7 +3274,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>139</v>
       </c>
@@ -3221,7 +3291,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>135</v>
       </c>
@@ -3238,7 +3308,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>136</v>
       </c>
@@ -3255,7 +3325,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>137</v>
       </c>
@@ -3316,7 +3386,12 @@
       <c r="C110" s="6">
         <v>40967.638888888891</v>
       </c>
-      <c r="D110" s="3"/>
+      <c r="D110">
+        <v>1769241</v>
+      </c>
+      <c r="E110" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="111" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
@@ -3357,7 +3432,12 @@
       <c r="C113" s="6">
         <v>41330.025000000001</v>
       </c>
-      <c r="D113" s="3"/>
+      <c r="D113">
+        <v>1769241</v>
+      </c>
+      <c r="E113" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="114" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -3376,7 +3456,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>156</v>
       </c>
@@ -3386,7 +3466,12 @@
       <c r="C115" s="6">
         <v>40420.720138888886</v>
       </c>
-      <c r="D115" s="3"/>
+      <c r="D115" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E115" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="116" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
@@ -3434,7 +3519,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>159</v>
       </c>
@@ -3444,7 +3529,12 @@
       <c r="C119" s="6">
         <v>40400.870138888888</v>
       </c>
-      <c r="D119" s="3"/>
+      <c r="D119" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E119" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="120" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
@@ -3485,8 +3575,8 @@
       <c r="C122" s="6">
         <v>40288.902777777781</v>
       </c>
-      <c r="D122">
-        <v>1818656</v>
+      <c r="D122" s="3">
+        <v>1087859</v>
       </c>
       <c r="E122" t="s">
         <v>221</v>
@@ -3538,7 +3628,7 @@
       </c>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>162</v>
       </c>
@@ -3548,7 +3638,12 @@
       <c r="C126" s="6">
         <v>40400.615972222222</v>
       </c>
-      <c r="D126" s="3"/>
+      <c r="D126" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E126" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="127" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
@@ -3635,7 +3730,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>157</v>
       </c>
@@ -3645,7 +3740,12 @@
       <c r="C132" s="6">
         <v>40400.959722222222</v>
       </c>
-      <c r="D132" s="3"/>
+      <c r="D132" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E132" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="133" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
@@ -3664,7 +3764,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>150</v>
       </c>
@@ -3674,7 +3774,12 @@
       <c r="C134" s="6">
         <v>40525.09097222222</v>
       </c>
-      <c r="D134" s="3"/>
+      <c r="D134" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E134" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="135" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -3722,7 +3827,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>165</v>
       </c>
@@ -3732,7 +3837,12 @@
       <c r="C138" s="6">
         <v>40399.927777777775</v>
       </c>
-      <c r="D138" s="3"/>
+      <c r="D138" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E138" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="139" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
@@ -3758,7 +3868,7 @@
       </c>
       <c r="D140" s="3"/>
     </row>
-    <row r="141" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>160</v>
       </c>
@@ -3768,7 +3878,12 @@
       <c r="C141" s="6">
         <v>40400.861805555556</v>
       </c>
-      <c r="D141" s="3"/>
+      <c r="D141" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E141" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="142" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
@@ -3833,7 +3948,7 @@
       </c>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>158</v>
       </c>
@@ -3843,7 +3958,12 @@
       <c r="C146" s="6">
         <v>40400.904166666667</v>
       </c>
-      <c r="D146" s="3"/>
+      <c r="D146" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E146" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="147" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
@@ -3872,7 +3992,12 @@
       <c r="C148" s="6">
         <v>42167.545138888891</v>
       </c>
-      <c r="D148" s="3"/>
+      <c r="D148">
+        <v>1769241</v>
+      </c>
+      <c r="E148" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="149" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
@@ -3920,7 +4045,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>166</v>
       </c>
@@ -3930,7 +4055,12 @@
       <c r="C152" s="6">
         <v>40399.912499999999</v>
       </c>
-      <c r="D152" s="3"/>
+      <c r="D152" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E152" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="153" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
@@ -4007,7 +4137,7 @@
       </c>
       <c r="D157" s="3"/>
     </row>
-    <row r="158" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>171</v>
       </c>
@@ -4017,7 +4147,12 @@
       <c r="C158" s="6">
         <v>40253.943749999999</v>
       </c>
-      <c r="D158" s="3"/>
+      <c r="D158" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E158" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="159" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
@@ -4065,7 +4200,7 @@
       </c>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>153</v>
       </c>
@@ -4075,7 +4210,12 @@
       <c r="C162" s="6">
         <v>40525.038888888892</v>
       </c>
-      <c r="D162" s="3"/>
+      <c r="D162" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E162" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="163" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
@@ -4116,7 +4256,12 @@
       <c r="C165" s="6">
         <v>41763.938888888886</v>
       </c>
-      <c r="D165" s="3"/>
+      <c r="D165">
+        <v>1769241</v>
+      </c>
+      <c r="E165" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="166" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
@@ -4128,7 +4273,12 @@
       <c r="C166" s="6">
         <v>42164.629861111112</v>
       </c>
-      <c r="D166" s="3"/>
+      <c r="D166">
+        <v>1769241</v>
+      </c>
+      <c r="E166" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="167" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
@@ -4287,7 +4437,12 @@
       <c r="C178" s="6">
         <v>41310.913194444445</v>
       </c>
-      <c r="D178" s="3"/>
+      <c r="D178">
+        <v>1769241</v>
+      </c>
+      <c r="E178" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="179" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" s="5" t="s">
@@ -4376,7 +4531,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>152</v>
       </c>
@@ -4386,7 +4541,12 @@
       <c r="C185" s="6">
         <v>40525.060416666667</v>
       </c>
-      <c r="D185" s="3"/>
+      <c r="D185" s="3">
+        <v>1087859</v>
+      </c>
+      <c r="E185" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="186" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
@@ -4849,7 +5009,12 @@
       <c r="C214" s="6">
         <v>42449.727777777778</v>
       </c>
-      <c r="D214" s="3"/>
+      <c r="D214">
+        <v>1769241</v>
+      </c>
+      <c r="E214" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="215" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
@@ -5103,7 +5268,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5129,6 +5294,9 @@
       <c r="C2">
         <v>14</v>
       </c>
+      <c r="D2" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -5284,6 +5452,9 @@
       </c>
       <c r="C17">
         <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">

--- a/ben-build tools/old video catalog/vimeo-table.xlsx
+++ b/ben-build tools/old video catalog/vimeo-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/XCode/projects/Publish Web Sites/theskinny/ben-build tools/old video catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5B4660-46E6-F04B-A3B8-CC06B8E44A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0904C4A8-0BF3-154F-B309-E9D959A00BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="3560" windowWidth="23260" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13600" yWindow="2500" windowWidth="20040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vimeo-table" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="237">
   <si>
     <t>Privacy</t>
   </si>
@@ -1639,11 +1639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="D212" sqref="D212:E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1670,7 +1669,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>191</v>
       </c>
@@ -1697,9 +1696,14 @@
       <c r="C3" s="6">
         <v>40224.361111111109</v>
       </c>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>20180</v>
+      </c>
+      <c r="E3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>124</v>
       </c>
@@ -1716,7 +1720,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>112</v>
       </c>
@@ -1733,7 +1737,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>67</v>
       </c>
@@ -1761,13 +1765,13 @@
         <v>40288.915972222225</v>
       </c>
       <c r="D7">
-        <v>1769241</v>
+        <v>20180</v>
       </c>
       <c r="E7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>134</v>
       </c>
@@ -1784,7 +1788,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>161</v>
       </c>
@@ -1811,9 +1815,14 @@
       <c r="C10" s="6">
         <v>41036.677083333336</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="3">
+        <v>1769241</v>
+      </c>
+      <c r="E10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>142</v>
       </c>
@@ -1830,7 +1839,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>130</v>
       </c>
@@ -1869,9 +1878,14 @@
       <c r="C14" s="6">
         <v>39476.377083333333</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>20180</v>
+      </c>
+      <c r="E14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -1888,7 +1902,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>174</v>
       </c>
@@ -1905,7 +1919,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>110</v>
       </c>
@@ -1922,7 +1936,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
@@ -1939,7 +1953,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
@@ -1978,9 +1992,14 @@
       <c r="C21" s="6">
         <v>40204.929861111108</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>171964</v>
+      </c>
+      <c r="E21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>163</v>
       </c>
@@ -2014,7 +2033,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>200</v>
       </c>
@@ -2048,7 +2067,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>187</v>
       </c>
@@ -2075,9 +2094,14 @@
       <c r="C27" s="6">
         <v>39449.982638888891</v>
       </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>20180</v>
+      </c>
+      <c r="E27" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>97</v>
       </c>
@@ -2094,7 +2118,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
@@ -2111,7 +2135,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>190</v>
       </c>
@@ -2138,9 +2162,14 @@
       <c r="C31" s="6">
         <v>40525.09375</v>
       </c>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>20180</v>
+      </c>
+      <c r="E31" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>105</v>
       </c>
@@ -2157,7 +2186,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>131</v>
       </c>
@@ -2174,7 +2203,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>188</v>
       </c>
@@ -2191,7 +2220,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>180</v>
       </c>
@@ -2208,7 +2237,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>179</v>
       </c>
@@ -2235,9 +2264,14 @@
       <c r="C37" s="6">
         <v>40221.482638888891</v>
       </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>20180</v>
+      </c>
+      <c r="E37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
@@ -2264,7 +2298,12 @@
       <c r="C39" s="6">
         <v>39658.931944444441</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39">
+        <v>20180</v>
+      </c>
+      <c r="E39" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
@@ -2283,7 +2322,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>128</v>
       </c>
@@ -2300,7 +2339,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>127</v>
       </c>
@@ -2353,7 +2392,7 @@
       </c>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>68</v>
       </c>
@@ -2370,7 +2409,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>16</v>
       </c>
@@ -2387,7 +2426,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>16</v>
       </c>
@@ -2404,7 +2443,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>25</v>
       </c>
@@ -2421,7 +2460,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>38</v>
       </c>
@@ -2448,7 +2487,12 @@
       <c r="C51" s="6">
         <v>40266.906944444447</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51">
+        <v>20180</v>
+      </c>
+      <c r="E51" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -2460,9 +2504,14 @@
       <c r="C52" s="6">
         <v>39658.944444444445</v>
       </c>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>20180</v>
+      </c>
+      <c r="E52" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>92</v>
       </c>
@@ -2496,7 +2545,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>18</v>
       </c>
@@ -2513,7 +2562,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>108</v>
       </c>
@@ -2530,7 +2579,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -2571,7 +2620,7 @@
       </c>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>151</v>
       </c>
@@ -2588,7 +2637,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>24</v>
       </c>
@@ -2629,7 +2678,7 @@
       </c>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>203</v>
       </c>
@@ -2646,7 +2695,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>209</v>
       </c>
@@ -2663,7 +2712,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>125</v>
       </c>
@@ -2680,7 +2729,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>48</v>
       </c>
@@ -2697,7 +2746,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>167</v>
       </c>
@@ -2714,7 +2763,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>182</v>
       </c>
@@ -2741,7 +2790,12 @@
       <c r="C70" s="6">
         <v>40221.459027777775</v>
       </c>
-      <c r="D70" s="3"/>
+      <c r="D70" s="9">
+        <v>171964</v>
+      </c>
+      <c r="E70" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
@@ -2753,9 +2807,14 @@
       <c r="C71" s="6">
         <v>40205.061805555553</v>
       </c>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D71" s="9">
+        <v>171964</v>
+      </c>
+      <c r="E71" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>211</v>
       </c>
@@ -2772,7 +2831,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>116</v>
       </c>
@@ -2789,7 +2848,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>98</v>
       </c>
@@ -2806,7 +2865,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>107</v>
       </c>
@@ -2823,7 +2882,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>47</v>
       </c>
@@ -2862,9 +2921,14 @@
       <c r="C78" s="6">
         <v>40204.956250000003</v>
       </c>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="9">
+        <v>171964</v>
+      </c>
+      <c r="E78" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>129</v>
       </c>
@@ -2881,7 +2945,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>51</v>
       </c>
@@ -2898,7 +2962,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2915,7 +2979,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>57</v>
       </c>
@@ -2942,7 +3006,12 @@
       <c r="C83" s="6">
         <v>39623.89166666667</v>
       </c>
-      <c r="D83" s="3"/>
+      <c r="D83">
+        <v>20180</v>
+      </c>
+      <c r="E83" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="84" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
@@ -2956,7 +3025,7 @@
       </c>
       <c r="D84" s="3"/>
     </row>
-    <row r="85" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>75</v>
       </c>
@@ -2973,7 +3042,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>122</v>
       </c>
@@ -2990,7 +3059,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>121</v>
       </c>
@@ -3007,7 +3076,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>60</v>
       </c>
@@ -3024,7 +3093,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>106</v>
       </c>
@@ -3041,7 +3110,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>22</v>
       </c>
@@ -3058,7 +3127,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>58</v>
       </c>
@@ -3075,7 +3144,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>19</v>
       </c>
@@ -3121,7 +3190,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>99</v>
       </c>
@@ -3138,7 +3207,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>111</v>
       </c>
@@ -3155,7 +3224,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>20</v>
       </c>
@@ -3172,7 +3241,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>46</v>
       </c>
@@ -3189,7 +3258,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>205</v>
       </c>
@@ -3206,7 +3275,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>103</v>
       </c>
@@ -3240,7 +3309,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>178</v>
       </c>
@@ -3257,7 +3326,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>138</v>
       </c>
@@ -3274,7 +3343,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>139</v>
       </c>
@@ -3291,7 +3360,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>135</v>
       </c>
@@ -3308,7 +3377,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>136</v>
       </c>
@@ -3325,7 +3394,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>137</v>
       </c>
@@ -3342,7 +3411,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>141</v>
       </c>
@@ -3359,7 +3428,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>202</v>
       </c>
@@ -3393,7 +3462,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>88</v>
       </c>
@@ -3439,7 +3508,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>147</v>
       </c>
@@ -3456,7 +3525,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>156</v>
       </c>
@@ -3473,7 +3542,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>104</v>
       </c>
@@ -3500,9 +3569,14 @@
       <c r="C117" s="6">
         <v>40464.4375</v>
       </c>
-      <c r="D117" s="3"/>
-    </row>
-    <row r="118" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D117">
+        <v>20180</v>
+      </c>
+      <c r="E117" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>102</v>
       </c>
@@ -3519,7 +3593,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>159</v>
       </c>
@@ -3536,7 +3610,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>94</v>
       </c>
@@ -3565,7 +3639,7 @@
       </c>
       <c r="D121" s="3"/>
     </row>
-    <row r="122" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>169</v>
       </c>
@@ -3582,7 +3656,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>49</v>
       </c>
@@ -3599,7 +3673,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>201</v>
       </c>
@@ -3628,7 +3702,7 @@
       </c>
       <c r="D125" s="3"/>
     </row>
-    <row r="126" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>162</v>
       </c>
@@ -3645,7 +3719,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>186</v>
       </c>
@@ -3662,7 +3736,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>213</v>
       </c>
@@ -3679,7 +3753,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>204</v>
       </c>
@@ -3696,7 +3770,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>115</v>
       </c>
@@ -3713,7 +3787,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>199</v>
       </c>
@@ -3730,7 +3804,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>157</v>
       </c>
@@ -3747,7 +3821,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>79</v>
       </c>
@@ -3764,7 +3838,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>150</v>
       </c>
@@ -3781,7 +3855,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>81</v>
       </c>
@@ -3808,9 +3882,14 @@
       <c r="C136" s="6">
         <v>40856.496527777781</v>
       </c>
-      <c r="D136" s="3"/>
-    </row>
-    <row r="137" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D136">
+        <v>20180</v>
+      </c>
+      <c r="E136" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>21</v>
       </c>
@@ -3827,7 +3906,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>165</v>
       </c>
@@ -3866,9 +3945,14 @@
       <c r="C140" s="6">
         <v>40225.538194444445</v>
       </c>
-      <c r="D140" s="3"/>
-    </row>
-    <row r="141" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D140" s="9">
+        <v>171964</v>
+      </c>
+      <c r="E140" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>160</v>
       </c>
@@ -3885,7 +3969,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>29</v>
       </c>
@@ -3902,7 +3986,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>73</v>
       </c>
@@ -3919,7 +4003,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>212</v>
       </c>
@@ -3948,7 +4032,7 @@
       </c>
       <c r="D145" s="3"/>
     </row>
-    <row r="146" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>158</v>
       </c>
@@ -3965,7 +4049,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>23</v>
       </c>
@@ -4009,9 +4093,14 @@
       <c r="C149" s="6">
         <v>40710.95416666667</v>
       </c>
-      <c r="D149" s="3"/>
-    </row>
-    <row r="150" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D149">
+        <v>20180</v>
+      </c>
+      <c r="E149" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>78</v>
       </c>
@@ -4028,7 +4117,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>86</v>
       </c>
@@ -4045,7 +4134,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>166</v>
       </c>
@@ -4062,7 +4151,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>26</v>
       </c>
@@ -4091,7 +4180,7 @@
       </c>
       <c r="D154" s="3"/>
     </row>
-    <row r="155" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>41</v>
       </c>
@@ -4108,7 +4197,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>189</v>
       </c>
@@ -4135,9 +4224,14 @@
       <c r="C157" s="6">
         <v>40718.193055555559</v>
       </c>
-      <c r="D157" s="3"/>
-    </row>
-    <row r="158" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D157">
+        <v>20180</v>
+      </c>
+      <c r="E157" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>171</v>
       </c>
@@ -4154,7 +4248,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>50</v>
       </c>
@@ -4171,7 +4265,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>82</v>
       </c>
@@ -4200,7 +4294,7 @@
       </c>
       <c r="D161" s="3"/>
     </row>
-    <row r="162" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>153</v>
       </c>
@@ -4227,9 +4321,14 @@
       <c r="C163" s="6">
         <v>39623.838888888888</v>
       </c>
-      <c r="D163" s="3"/>
-    </row>
-    <row r="164" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D163">
+        <v>20180</v>
+      </c>
+      <c r="E163" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>83</v>
       </c>
@@ -4352,7 +4451,7 @@
       </c>
       <c r="D172" s="3"/>
     </row>
-    <row r="173" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>64</v>
       </c>
@@ -4369,7 +4468,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>85</v>
       </c>
@@ -4396,7 +4495,12 @@
       <c r="C175" s="6">
         <v>40542.622916666667</v>
       </c>
-      <c r="D175" s="3"/>
+      <c r="D175">
+        <v>20180</v>
+      </c>
+      <c r="E175" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="176" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
@@ -4408,9 +4512,14 @@
       <c r="C176" s="6">
         <v>40434.040277777778</v>
       </c>
-      <c r="D176" s="3"/>
-    </row>
-    <row r="177" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D176">
+        <v>20180</v>
+      </c>
+      <c r="E176" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>6</v>
       </c>
@@ -4466,9 +4575,14 @@
       <c r="C180" s="6">
         <v>39449.987500000003</v>
       </c>
-      <c r="D180" s="3"/>
-    </row>
-    <row r="181" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D180">
+        <v>20180</v>
+      </c>
+      <c r="E180" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>45</v>
       </c>
@@ -4497,7 +4611,7 @@
       </c>
       <c r="D182" s="3"/>
     </row>
-    <row r="183" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>12</v>
       </c>
@@ -4514,7 +4628,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>44</v>
       </c>
@@ -4531,7 +4645,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>152</v>
       </c>
@@ -4548,7 +4662,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>140</v>
       </c>
@@ -4575,9 +4689,14 @@
       <c r="C187" s="6">
         <v>40399.931250000001</v>
       </c>
-      <c r="D187" s="3"/>
-    </row>
-    <row r="188" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+      <c r="D187">
+        <v>20180</v>
+      </c>
+      <c r="E187" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>118</v>
       </c>
@@ -4594,7 +4713,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>123</v>
       </c>
@@ -4611,7 +4730,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>91</v>
       </c>
@@ -4628,7 +4747,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>90</v>
       </c>
@@ -4645,7 +4764,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>5</v>
       </c>
@@ -4662,7 +4781,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>214</v>
       </c>
@@ -4679,7 +4798,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>30</v>
       </c>
@@ -4696,7 +4815,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>210</v>
       </c>
@@ -4713,7 +4832,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>59</v>
       </c>
@@ -4730,7 +4849,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>76</v>
       </c>
@@ -4747,7 +4866,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>146</v>
       </c>
@@ -4764,7 +4883,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>145</v>
       </c>
@@ -4805,7 +4924,7 @@
       </c>
       <c r="D201" s="3"/>
     </row>
-    <row r="202" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>113</v>
       </c>
@@ -4822,7 +4941,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>120</v>
       </c>
@@ -4839,7 +4958,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>61</v>
       </c>
@@ -4856,7 +4975,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>74</v>
       </c>
@@ -4873,7 +4992,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>62</v>
       </c>
@@ -4890,7 +5009,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>15</v>
       </c>
@@ -4907,7 +5026,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>114</v>
       </c>
@@ -4924,7 +5043,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>43</v>
       </c>
@@ -4941,7 +5060,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>84</v>
       </c>
@@ -4958,7 +5077,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>13</v>
       </c>
@@ -4985,7 +5104,12 @@
       <c r="C212" s="6">
         <v>40225.611111111109</v>
       </c>
-      <c r="D212" s="3"/>
+      <c r="D212" s="9">
+        <v>171964</v>
+      </c>
+      <c r="E212" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="213" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="5" t="s">
@@ -5016,7 +5140,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" ht="34" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>93</v>
       </c>
@@ -5034,11 +5158,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E215" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E215" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E215">
     <sortCondition ref="A1:A215"/>
   </sortState>
@@ -5268,7 +5388,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5308,6 +5428,9 @@
       <c r="C3">
         <v>20</v>
       </c>
+      <c r="D3" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -5318,6 +5441,9 @@
       </c>
       <c r="C4">
         <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">

--- a/ben-build tools/old video catalog/vimeo-table.xlsx
+++ b/ben-build tools/old video catalog/vimeo-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/XCode/projects/Publish Web Sites/theskinny/ben-build tools/old video catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0904C4A8-0BF3-154F-B309-E9D959A00BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC924C6E-ADE1-7D40-BCAF-CB10DC060A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13600" yWindow="2500" windowWidth="20040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="6120" windowWidth="20040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vimeo-table" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="241">
   <si>
     <t>Privacy</t>
   </si>
@@ -735,6 +735,18 @@
   </si>
   <si>
     <t>Home Movies (Vanya):  November 2009 - November 2010</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -1639,10 +1651,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="D212" sqref="D212:E212"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1669,7 +1682,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>191</v>
       </c>
@@ -1686,7 +1699,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>175</v>
       </c>
@@ -1703,7 +1716,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>124</v>
       </c>
@@ -1720,7 +1733,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>112</v>
       </c>
@@ -1737,7 +1750,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>67</v>
       </c>
@@ -1754,7 +1767,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>168</v>
       </c>
@@ -1771,7 +1784,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>134</v>
       </c>
@@ -1788,7 +1801,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>161</v>
       </c>
@@ -1805,7 +1818,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>96</v>
       </c>
@@ -1822,7 +1835,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>142</v>
       </c>
@@ -1839,7 +1852,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>130</v>
       </c>
@@ -1866,9 +1879,14 @@
       <c r="C13" s="6">
         <v>40891.356249999997</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D13" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>206</v>
       </c>
@@ -1885,7 +1903,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>72</v>
       </c>
@@ -1902,7 +1920,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>174</v>
       </c>
@@ -1919,7 +1937,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>110</v>
       </c>
@@ -1936,7 +1954,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
@@ -1953,7 +1971,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
@@ -1970,7 +1988,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>126</v>
       </c>
@@ -1980,9 +1998,11 @@
       <c r="C20" s="6">
         <v>40732.466666666667</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D20" s="3">
+        <v>1671571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>184</v>
       </c>
@@ -1999,7 +2019,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>163</v>
       </c>
@@ -2016,7 +2036,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>89</v>
       </c>
@@ -2033,7 +2053,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>200</v>
       </c>
@@ -2050,7 +2070,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>100</v>
       </c>
@@ -2067,7 +2087,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>187</v>
       </c>
@@ -2084,7 +2104,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>208</v>
       </c>
@@ -2101,7 +2121,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>97</v>
       </c>
@@ -2118,7 +2138,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>39</v>
       </c>
@@ -2135,7 +2155,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>190</v>
       </c>
@@ -2152,7 +2172,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>149</v>
       </c>
@@ -2169,7 +2189,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>105</v>
       </c>
@@ -2186,7 +2206,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>131</v>
       </c>
@@ -2203,7 +2223,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>188</v>
       </c>
@@ -2220,7 +2240,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>180</v>
       </c>
@@ -2237,7 +2257,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
         <v>179</v>
       </c>
@@ -2254,7 +2274,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>176</v>
       </c>
@@ -2271,7 +2291,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
         <v>80</v>
       </c>
@@ -2288,7 +2308,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>193</v>
       </c>
@@ -2305,7 +2325,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>52</v>
       </c>
@@ -2322,7 +2342,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>128</v>
       </c>
@@ -2339,7 +2359,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
         <v>127</v>
       </c>
@@ -2356,7 +2376,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>185</v>
       </c>
@@ -2366,7 +2386,9 @@
       <c r="C43" s="6">
         <v>40036.59652777778</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3">
+        <v>20180</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
@@ -2378,7 +2400,12 @@
       <c r="C44" s="6">
         <v>39629.931944444441</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E44" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
@@ -2390,9 +2417,14 @@
       <c r="C45" s="6">
         <v>39629.931944444441</v>
       </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D45" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>68</v>
       </c>
@@ -2409,7 +2441,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>16</v>
       </c>
@@ -2426,7 +2458,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>16</v>
       </c>
@@ -2443,7 +2475,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>25</v>
       </c>
@@ -2460,7 +2492,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>38</v>
       </c>
@@ -2477,7 +2509,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>170</v>
       </c>
@@ -2494,7 +2526,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>192</v>
       </c>
@@ -2511,7 +2543,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>92</v>
       </c>
@@ -2528,7 +2560,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>56</v>
       </c>
@@ -2545,7 +2577,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>18</v>
       </c>
@@ -2562,7 +2594,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>108</v>
       </c>
@@ -2579,7 +2611,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>55</v>
       </c>
@@ -2606,7 +2638,12 @@
       <c r="C58" s="6">
         <v>42397.734027777777</v>
       </c>
-      <c r="D58" s="3"/>
+      <c r="D58" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E58" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
@@ -2618,9 +2655,14 @@
       <c r="C59" s="6">
         <v>42397.734722222223</v>
       </c>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D59" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>151</v>
       </c>
@@ -2637,7 +2679,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
         <v>24</v>
       </c>
@@ -2664,7 +2706,12 @@
       <c r="C62" s="6">
         <v>42708.599305555559</v>
       </c>
-      <c r="D62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E62" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
@@ -2676,9 +2723,14 @@
       <c r="C63" s="6">
         <v>40659.910416666666</v>
       </c>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D63" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E63" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>203</v>
       </c>
@@ -2695,7 +2747,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>209</v>
       </c>
@@ -2712,7 +2764,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>125</v>
       </c>
@@ -2729,7 +2781,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>48</v>
       </c>
@@ -2746,7 +2798,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
         <v>167</v>
       </c>
@@ -2763,7 +2815,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>182</v>
       </c>
@@ -2780,7 +2832,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>177</v>
       </c>
@@ -2797,7 +2849,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>181</v>
       </c>
@@ -2814,7 +2866,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>211</v>
       </c>
@@ -2831,7 +2883,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>116</v>
       </c>
@@ -2848,7 +2900,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>98</v>
       </c>
@@ -2865,7 +2917,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
         <v>107</v>
       </c>
@@ -2882,7 +2934,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>47</v>
       </c>
@@ -2911,7 +2963,7 @@
       </c>
       <c r="D77" s="3"/>
     </row>
-    <row r="78" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
         <v>183</v>
       </c>
@@ -2928,7 +2980,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
         <v>129</v>
       </c>
@@ -2945,7 +2997,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>51</v>
       </c>
@@ -2962,7 +3014,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
         <v>53</v>
       </c>
@@ -2979,7 +3031,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
         <v>57</v>
       </c>
@@ -2996,7 +3048,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>197</v>
       </c>
@@ -3023,9 +3075,14 @@
       <c r="C84" s="6">
         <v>43748.304861111108</v>
       </c>
-      <c r="D84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D84" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E84" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
         <v>75</v>
       </c>
@@ -3042,7 +3099,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
         <v>122</v>
       </c>
@@ -3059,7 +3116,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>121</v>
       </c>
@@ -3076,7 +3133,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>60</v>
       </c>
@@ -3093,7 +3150,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>106</v>
       </c>
@@ -3110,7 +3167,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>22</v>
       </c>
@@ -3127,7 +3184,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>58</v>
       </c>
@@ -3144,7 +3201,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>19</v>
       </c>
@@ -3171,9 +3228,14 @@
       <c r="C93" s="6">
         <v>42453.677777777775</v>
       </c>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D93" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E93" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>117</v>
       </c>
@@ -3190,7 +3252,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>99</v>
       </c>
@@ -3207,7 +3269,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>111</v>
       </c>
@@ -3224,7 +3286,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>20</v>
       </c>
@@ -3241,7 +3303,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>46</v>
       </c>
@@ -3258,7 +3320,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>205</v>
       </c>
@@ -3275,7 +3337,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>103</v>
       </c>
@@ -3292,7 +3354,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>32</v>
       </c>
@@ -3309,7 +3371,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>178</v>
       </c>
@@ -3326,7 +3388,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
         <v>138</v>
       </c>
@@ -3343,7 +3405,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
         <v>139</v>
       </c>
@@ -3360,7 +3422,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>135</v>
       </c>
@@ -3377,7 +3439,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>136</v>
       </c>
@@ -3394,7 +3456,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>137</v>
       </c>
@@ -3411,7 +3473,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>141</v>
       </c>
@@ -3428,7 +3490,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>202</v>
       </c>
@@ -3445,7 +3507,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>101</v>
       </c>
@@ -3462,7 +3524,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
         <v>88</v>
       </c>
@@ -3479,7 +3541,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
         <v>87</v>
       </c>
@@ -3489,9 +3551,11 @@
       <c r="C112" s="6">
         <v>41107.82708333333</v>
       </c>
-      <c r="D112" s="3"/>
-    </row>
-    <row r="113" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D112" s="3">
+        <v>1818656</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
         <v>70</v>
       </c>
@@ -3508,7 +3572,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>147</v>
       </c>
@@ -3525,7 +3589,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
         <v>156</v>
       </c>
@@ -3542,7 +3606,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
         <v>104</v>
       </c>
@@ -3559,7 +3623,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5" t="s">
         <v>154</v>
       </c>
@@ -3576,7 +3640,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5" t="s">
         <v>102</v>
       </c>
@@ -3593,7 +3657,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
         <v>159</v>
       </c>
@@ -3610,7 +3674,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5" t="s">
         <v>94</v>
       </c>
@@ -3637,9 +3701,14 @@
       <c r="C121" s="6">
         <v>41568.53402777778</v>
       </c>
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D121" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E121" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>169</v>
       </c>
@@ -3656,7 +3725,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>49</v>
       </c>
@@ -3673,7 +3742,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5" t="s">
         <v>201</v>
       </c>
@@ -3690,7 +3759,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>95</v>
       </c>
@@ -3700,9 +3769,11 @@
       <c r="C125" s="6">
         <v>41059.445833333331</v>
       </c>
-      <c r="D125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D125" s="3">
+        <v>1818656</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5" t="s">
         <v>162</v>
       </c>
@@ -3719,7 +3790,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
         <v>186</v>
       </c>
@@ -3736,7 +3807,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>213</v>
       </c>
@@ -3753,7 +3824,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5" t="s">
         <v>204</v>
       </c>
@@ -3770,7 +3841,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
         <v>115</v>
       </c>
@@ -3787,7 +3858,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5" t="s">
         <v>199</v>
       </c>
@@ -3804,7 +3875,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
         <v>157</v>
       </c>
@@ -3821,7 +3892,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5" t="s">
         <v>79</v>
       </c>
@@ -3838,7 +3909,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5" t="s">
         <v>150</v>
       </c>
@@ -3855,7 +3926,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>81</v>
       </c>
@@ -3872,7 +3943,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>119</v>
       </c>
@@ -3889,7 +3960,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>21</v>
       </c>
@@ -3906,7 +3977,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5" t="s">
         <v>165</v>
       </c>
@@ -3933,9 +4004,14 @@
       <c r="C139" s="6">
         <v>43187.414583333331</v>
       </c>
-      <c r="D139" s="3"/>
-    </row>
-    <row r="140" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D139" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E139" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5" t="s">
         <v>173</v>
       </c>
@@ -3952,7 +4028,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5" t="s">
         <v>160</v>
       </c>
@@ -3969,7 +4045,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
         <v>29</v>
       </c>
@@ -3986,7 +4062,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5" t="s">
         <v>73</v>
       </c>
@@ -4003,7 +4079,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
         <v>212</v>
       </c>
@@ -4030,9 +4106,14 @@
       <c r="C145" s="6">
         <v>39629.931944444441</v>
       </c>
-      <c r="D145" s="3"/>
-    </row>
-    <row r="146" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D145" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E145" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5" t="s">
         <v>158</v>
       </c>
@@ -4049,7 +4130,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>23</v>
       </c>
@@ -4066,7 +4147,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>31</v>
       </c>
@@ -4083,7 +4164,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
         <v>133</v>
       </c>
@@ -4100,7 +4181,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
         <v>78</v>
       </c>
@@ -4117,7 +4198,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
         <v>86</v>
       </c>
@@ -4134,7 +4215,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
         <v>166</v>
       </c>
@@ -4151,7 +4232,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5" t="s">
         <v>26</v>
       </c>
@@ -4168,7 +4249,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5" t="s">
         <v>10</v>
       </c>
@@ -4178,9 +4259,11 @@
       <c r="C154" s="6">
         <v>42465.896527777775</v>
       </c>
-      <c r="D154" s="3"/>
-    </row>
-    <row r="155" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D154" s="3">
+        <v>2674225</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
         <v>41</v>
       </c>
@@ -4197,7 +4280,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5" t="s">
         <v>189</v>
       </c>
@@ -4214,7 +4297,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>132</v>
       </c>
@@ -4231,7 +4314,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
         <v>171</v>
       </c>
@@ -4248,7 +4331,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>50</v>
       </c>
@@ -4265,7 +4348,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>82</v>
       </c>
@@ -4292,9 +4375,14 @@
       <c r="C161" s="6">
         <v>41205.509722222225</v>
       </c>
-      <c r="D161" s="3"/>
-    </row>
-    <row r="162" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D161" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E161" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
         <v>153</v>
       </c>
@@ -4311,7 +4399,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>198</v>
       </c>
@@ -4328,7 +4416,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>83</v>
       </c>
@@ -4345,7 +4433,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>54</v>
       </c>
@@ -4362,7 +4450,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>42</v>
       </c>
@@ -4379,7 +4467,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5" t="s">
         <v>36</v>
       </c>
@@ -4389,9 +4477,14 @@
       <c r="C167" s="6">
         <v>42165.611805555556</v>
       </c>
-      <c r="D167" s="3"/>
-    </row>
-    <row r="168" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D167" s="3">
+        <v>-99</v>
+      </c>
+      <c r="E167" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
         <v>37</v>
       </c>
@@ -4401,9 +4494,14 @@
       <c r="C168" s="6">
         <v>42165.611805555556</v>
       </c>
-      <c r="D168" s="3"/>
-    </row>
-    <row r="169" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D168" s="3">
+        <v>-99</v>
+      </c>
+      <c r="E168" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
         <v>34</v>
       </c>
@@ -4413,9 +4511,14 @@
       <c r="C169" s="6">
         <v>42165.611805555556</v>
       </c>
-      <c r="D169" s="3"/>
-    </row>
-    <row r="170" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D169" s="3">
+        <v>-99</v>
+      </c>
+      <c r="E169" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5" t="s">
         <v>35</v>
       </c>
@@ -4425,9 +4528,14 @@
       <c r="C170" s="6">
         <v>42165.611805555556</v>
       </c>
-      <c r="D170" s="3"/>
-    </row>
-    <row r="171" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D170" s="3">
+        <v>-99</v>
+      </c>
+      <c r="E170" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5" t="s">
         <v>33</v>
       </c>
@@ -4437,9 +4545,14 @@
       <c r="C171" s="6">
         <v>42165.611805555556</v>
       </c>
-      <c r="D171" s="3"/>
-    </row>
-    <row r="172" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D171" s="3">
+        <v>-99</v>
+      </c>
+      <c r="E171" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>40</v>
       </c>
@@ -4449,9 +4562,14 @@
       <c r="C172" s="6">
         <v>42164.709027777775</v>
       </c>
-      <c r="D172" s="3"/>
-    </row>
-    <row r="173" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D172" s="3">
+        <v>-99</v>
+      </c>
+      <c r="E172" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>64</v>
       </c>
@@ -4468,7 +4586,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
         <v>85</v>
       </c>
@@ -4485,7 +4603,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5" t="s">
         <v>148</v>
       </c>
@@ -4502,7 +4620,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5" t="s">
         <v>155</v>
       </c>
@@ -4519,7 +4637,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
         <v>6</v>
       </c>
@@ -4536,7 +4654,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5" t="s">
         <v>71</v>
       </c>
@@ -4563,9 +4681,14 @@
       <c r="C179" s="6">
         <v>41339.929861111108</v>
       </c>
-      <c r="D179" s="3"/>
-    </row>
-    <row r="180" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D179" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E179" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>207</v>
       </c>
@@ -4582,7 +4705,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
         <v>45</v>
       </c>
@@ -4599,7 +4722,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5" t="s">
         <v>12</v>
       </c>
@@ -4609,9 +4732,11 @@
       <c r="C182" s="6">
         <v>42453.677777777775</v>
       </c>
-      <c r="D182" s="3"/>
-    </row>
-    <row r="183" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D182" s="3">
+        <v>2674225</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
         <v>12</v>
       </c>
@@ -4628,7 +4753,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>44</v>
       </c>
@@ -4645,7 +4770,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>152</v>
       </c>
@@ -4662,7 +4787,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
         <v>140</v>
       </c>
@@ -4679,7 +4804,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>164</v>
       </c>
@@ -4696,7 +4821,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5" t="s">
         <v>118</v>
       </c>
@@ -4713,7 +4838,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
         <v>123</v>
       </c>
@@ -4730,7 +4855,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
         <v>91</v>
       </c>
@@ -4747,7 +4872,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
         <v>90</v>
       </c>
@@ -4764,7 +4889,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>5</v>
       </c>
@@ -4781,7 +4906,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>214</v>
       </c>
@@ -4798,7 +4923,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>30</v>
       </c>
@@ -4815,7 +4940,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
         <v>210</v>
       </c>
@@ -4832,7 +4957,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>59</v>
       </c>
@@ -4849,7 +4974,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5" t="s">
         <v>76</v>
       </c>
@@ -4866,7 +4991,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5" t="s">
         <v>146</v>
       </c>
@@ -4883,7 +5008,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5" t="s">
         <v>145</v>
       </c>
@@ -4900,7 +5025,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
         <v>144</v>
       </c>
@@ -4910,7 +5035,9 @@
       <c r="C200" s="6">
         <v>40584.852777777778</v>
       </c>
-      <c r="D200" s="3"/>
+      <c r="D200" s="3">
+        <v>15808748</v>
+      </c>
     </row>
     <row r="201" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
@@ -4922,9 +5049,14 @@
       <c r="C201" s="6">
         <v>42449.728472222225</v>
       </c>
-      <c r="D201" s="3"/>
-    </row>
-    <row r="202" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D201" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E201" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5" t="s">
         <v>113</v>
       </c>
@@ -4941,7 +5073,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5" t="s">
         <v>120</v>
       </c>
@@ -4958,7 +5090,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5" t="s">
         <v>61</v>
       </c>
@@ -4975,7 +5107,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
         <v>74</v>
       </c>
@@ -4992,7 +5124,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
         <v>62</v>
       </c>
@@ -5009,7 +5141,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5" t="s">
         <v>15</v>
       </c>
@@ -5026,7 +5158,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5" t="s">
         <v>114</v>
       </c>
@@ -5043,7 +5175,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5" t="s">
         <v>43</v>
       </c>
@@ -5060,7 +5192,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5" t="s">
         <v>84</v>
       </c>
@@ -5077,7 +5209,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5" t="s">
         <v>13</v>
       </c>
@@ -5094,7 +5226,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
         <v>172</v>
       </c>
@@ -5122,8 +5254,11 @@
         <v>43538.854166666664</v>
       </c>
       <c r="D213" s="3"/>
-    </row>
-    <row r="214" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E213" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5" t="s">
         <v>17</v>
       </c>
@@ -5140,7 +5275,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" ht="34" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5" t="s">
         <v>93</v>
       </c>
@@ -5158,7 +5293,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E215" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E215" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E215">
     <sortCondition ref="A1:A215"/>
   </sortState>
@@ -5388,7 +5527,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/ben-build tools/old video catalog/vimeo-table.xlsx
+++ b/ben-build tools/old video catalog/vimeo-table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/XCode/projects/Publish Web Sites/theskinny/ben-build tools/old video catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC924C6E-ADE1-7D40-BCAF-CB10DC060A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B137DF-A8C0-054C-9331-5C9ADC3ED855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="6120" windowWidth="20040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="6100" windowWidth="20040" windowHeight="17440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vimeo-table" sheetId="1" r:id="rId1"/>
@@ -925,7 +925,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1105,6 +1105,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1267,7 +1273,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1295,6 +1301,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1654,7 +1661,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
@@ -5526,8 +5533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5558,16 +5565,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="11">
         <v>20180</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="11">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="11" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5653,44 +5660,44 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="11">
         <v>1730821</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="11">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="11" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="11">
         <v>1508748</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="11">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="11" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="11">
         <v>1671571</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="11">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="11" t="s">
         <v>221</v>
       </c>
     </row>
@@ -5723,16 +5730,16 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="11">
         <v>3359</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="11">
         <v>20</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="11" t="s">
         <v>221</v>
       </c>
     </row>
